--- a/Dグループ_要件定義書.xlsx
+++ b/Dグループ_要件定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\# グループディスカッション\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3E62C4-751D-47FA-9F04-6E330285B1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4EBFAB-044A-41CC-A86E-EC9A13601D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="795" windowWidth="9975" windowHeight="10725" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>要件定義書</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>最終更新者</t>
-  </si>
-  <si>
-    <t>新垣</t>
   </si>
   <si>
     <t>　</t>
@@ -1292,10 +1289,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2995,7 +2992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V60" sqref="V60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3005,7 +3004,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3043,7 +3042,7 @@
     </row>
     <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3081,7 +3080,7 @@
     </row>
     <row r="3" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3119,7 +3118,7 @@
     </row>
     <row r="4" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3157,7 +3156,7 @@
     </row>
     <row r="5" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3195,7 +3194,7 @@
     </row>
     <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3233,7 +3232,7 @@
     </row>
     <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4825,7 +4824,7 @@
       <c r="T58" s="46"/>
       <c r="U58" s="46"/>
       <c r="V58" s="49" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="W58" s="50"/>
       <c r="X58" s="50"/>
@@ -5080,13 +5079,13 @@
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="75"/>
       <c r="J6" s="75"/>
       <c r="K6" s="75"/>
       <c r="L6" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="77"/>
       <c r="N6" s="77"/>
@@ -5094,7 +5093,7 @@
       <c r="P6" s="77"/>
       <c r="Q6" s="78"/>
       <c r="R6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -5128,13 +5127,13 @@
       <c r="F7" s="56"/>
       <c r="G7" s="57"/>
       <c r="H7" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="54"/>
       <c r="K7" s="54"/>
       <c r="L7" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
@@ -5142,7 +5141,7 @@
       <c r="P7" s="62"/>
       <c r="Q7" s="63"/>
       <c r="R7" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S7" s="59"/>
       <c r="T7" s="59"/>
@@ -7481,7 +7480,7 @@
     <row r="7" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -7521,7 +7520,7 @@
     <row r="8" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -7561,7 +7560,7 @@
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -7610,7 +7609,7 @@
     <row r="11" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -7652,7 +7651,7 @@
     <row r="12" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4"/>
@@ -7691,7 +7690,7 @@
     <row r="13" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="35"/>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -7723,7 +7722,7 @@
     <row r="14" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="35"/>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN14" s="13"/>
     </row>
@@ -7734,7 +7733,7 @@
     <row r="16" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -7775,7 +7774,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="14"/>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7816,7 +7815,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="14"/>
       <c r="E18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -7891,7 +7890,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="14"/>
       <c r="F20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -7929,7 +7928,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="14"/>
       <c r="G21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -8001,7 +8000,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="14"/>
       <c r="F23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -8039,7 +8038,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="14"/>
       <c r="G24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" s="4"/>
       <c r="M24" s="4"/>
@@ -8072,7 +8071,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="14"/>
       <c r="G25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -8109,7 +8108,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="14"/>
       <c r="G26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="4"/>
       <c r="J26" s="4"/>
@@ -8146,7 +8145,7 @@
       <c r="B27" s="35"/>
       <c r="C27" s="4"/>
       <c r="G27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
@@ -8167,7 +8166,7 @@
       <c r="B29" s="35"/>
       <c r="C29" s="4"/>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -8207,7 +8206,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="35"/>
       <c r="F30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -8232,14 +8231,14 @@
       <c r="AB30" s="12"/>
       <c r="AN30" s="13"/>
       <c r="BD30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="35"/>
       <c r="F31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN31" s="13"/>
     </row>
@@ -8247,7 +8246,7 @@
       <c r="A32" s="1"/>
       <c r="B32" s="35"/>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN32" s="13"/>
     </row>
@@ -8260,7 +8259,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="35"/>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN34" s="13"/>
     </row>
@@ -8268,7 +8267,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="14"/>
       <c r="F35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AN35" s="13"/>
     </row>
@@ -8276,7 +8275,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="14"/>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN36" s="13"/>
     </row>
@@ -8284,7 +8283,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="14"/>
       <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AN37" s="13"/>
     </row>
@@ -8297,7 +8296,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="35"/>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN39" s="13"/>
     </row>
@@ -8305,7 +8304,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="F40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN40" s="13"/>
     </row>
@@ -8313,7 +8312,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="35"/>
       <c r="F41" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN41" s="13"/>
     </row>
@@ -8326,7 +8325,7 @@
       <c r="A43" s="1"/>
       <c r="B43" s="35"/>
       <c r="D43" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="32"/>
       <c r="AN43" s="13"/>
@@ -8336,7 +8335,7 @@
       <c r="B44" s="26"/>
       <c r="D44" s="32"/>
       <c r="F44" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN44" s="13"/>
       <c r="AQ44" s="4"/>
@@ -8378,7 +8377,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="25"/>
       <c r="C46" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2"/>
       <c r="G46" s="23"/>
@@ -8422,7 +8421,7 @@
       <c r="B47" s="25"/>
       <c r="C47" s="4"/>
       <c r="D47" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
@@ -9061,7 +9060,7 @@
       <c r="B71" s="14"/>
       <c r="C71" s="4"/>
       <c r="D71" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ71" s="31"/>
       <c r="AK71" s="31"/>
@@ -9074,7 +9073,7 @@
       <c r="B72" s="14"/>
       <c r="C72" s="4"/>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ72" s="31"/>
       <c r="AK72" s="31"/>
@@ -9096,7 +9095,7 @@
       <c r="A74" s="1"/>
       <c r="B74" s="14"/>
       <c r="D74" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK74" s="31"/>
       <c r="AL74" s="31"/>
@@ -9107,7 +9106,7 @@
       <c r="A75" s="1"/>
       <c r="B75" s="14"/>
       <c r="E75" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK75" s="31"/>
       <c r="AL75" s="31"/>
@@ -9118,7 +9117,7 @@
       <c r="A76" s="1"/>
       <c r="B76" s="14"/>
       <c r="E76" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK76" s="31"/>
       <c r="AL76" s="31"/>
@@ -9129,7 +9128,7 @@
       <c r="A77" s="1"/>
       <c r="B77" s="14"/>
       <c r="D77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK77" s="31"/>
       <c r="AL77" s="31"/>
@@ -9141,7 +9140,7 @@
       <c r="B78" s="14"/>
       <c r="C78" s="4"/>
       <c r="E78" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ78" s="31"/>
       <c r="AK78" s="31"/>
@@ -9160,7 +9159,7 @@
       <c r="A80" s="4"/>
       <c r="B80" s="14"/>
       <c r="D80" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AN80" s="13"/>
     </row>
@@ -9168,7 +9167,7 @@
       <c r="A81" s="4"/>
       <c r="B81" s="14"/>
       <c r="E81" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN81" s="13"/>
     </row>
@@ -9181,7 +9180,7 @@
       <c r="A83" s="4"/>
       <c r="B83" s="35"/>
       <c r="C83" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN83" s="13"/>
     </row>
@@ -9189,7 +9188,7 @@
       <c r="A84" s="4"/>
       <c r="B84" s="35"/>
       <c r="D84" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI84" s="31"/>
       <c r="AN84" s="13"/>
@@ -9210,7 +9209,7 @@
       <c r="A87" s="4"/>
       <c r="B87" s="35"/>
       <c r="C87" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN87" s="13"/>
     </row>
@@ -9218,7 +9217,7 @@
       <c r="A88" s="4"/>
       <c r="B88" s="35"/>
       <c r="D88" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN88" s="13"/>
     </row>
@@ -9226,7 +9225,7 @@
       <c r="A89" s="4"/>
       <c r="B89" s="35"/>
       <c r="D89" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN89" s="13"/>
     </row>
@@ -9240,7 +9239,7 @@
       <c r="A91" s="4"/>
       <c r="B91" s="35"/>
       <c r="C91" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI91" s="12"/>
       <c r="AN91" s="13"/>
@@ -9249,7 +9248,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="35"/>
       <c r="D92" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI92" s="12"/>
       <c r="AN92" s="13"/>
@@ -9268,7 +9267,7 @@
       <c r="A95" s="1"/>
       <c r="B95" s="35"/>
       <c r="C95" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN95" s="13"/>
     </row>
@@ -9276,7 +9275,7 @@
       <c r="A96" s="1"/>
       <c r="B96" s="35"/>
       <c r="D96" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN96" s="13"/>
     </row>
@@ -9376,28 +9375,28 @@
       <c r="H103" s="85"/>
       <c r="I103" s="85"/>
       <c r="J103" s="85"/>
-      <c r="K103" s="87"/>
-      <c r="L103" s="87"/>
-      <c r="M103" s="87"/>
-      <c r="N103" s="87"/>
-      <c r="O103" s="87"/>
-      <c r="P103" s="87"/>
-      <c r="Q103" s="87"/>
-      <c r="R103" s="87"/>
-      <c r="S103" s="87"/>
-      <c r="T103" s="87"/>
-      <c r="U103" s="87"/>
-      <c r="V103" s="87"/>
-      <c r="W103" s="87"/>
-      <c r="X103" s="87"/>
-      <c r="Y103" s="87"/>
-      <c r="Z103" s="87"/>
-      <c r="AA103" s="87"/>
-      <c r="AB103" s="87"/>
-      <c r="AC103" s="87"/>
-      <c r="AD103" s="87"/>
-      <c r="AE103" s="87"/>
-      <c r="AF103" s="87"/>
+      <c r="K103" s="86"/>
+      <c r="L103" s="86"/>
+      <c r="M103" s="86"/>
+      <c r="N103" s="86"/>
+      <c r="O103" s="86"/>
+      <c r="P103" s="86"/>
+      <c r="Q103" s="86"/>
+      <c r="R103" s="86"/>
+      <c r="S103" s="86"/>
+      <c r="T103" s="86"/>
+      <c r="U103" s="86"/>
+      <c r="V103" s="86"/>
+      <c r="W103" s="86"/>
+      <c r="X103" s="86"/>
+      <c r="Y103" s="86"/>
+      <c r="Z103" s="86"/>
+      <c r="AA103" s="86"/>
+      <c r="AB103" s="86"/>
+      <c r="AC103" s="86"/>
+      <c r="AD103" s="86"/>
+      <c r="AE103" s="86"/>
+      <c r="AF103" s="86"/>
       <c r="AG103" s="4"/>
       <c r="AH103" s="4"/>
       <c r="AI103" s="31"/>
@@ -9412,28 +9411,28 @@
       <c r="H104" s="85"/>
       <c r="I104" s="85"/>
       <c r="J104" s="85"/>
-      <c r="K104" s="87"/>
-      <c r="L104" s="87"/>
-      <c r="M104" s="87"/>
-      <c r="N104" s="87"/>
-      <c r="O104" s="87"/>
-      <c r="P104" s="87"/>
-      <c r="Q104" s="87"/>
-      <c r="R104" s="87"/>
-      <c r="S104" s="87"/>
-      <c r="T104" s="87"/>
-      <c r="U104" s="87"/>
-      <c r="V104" s="87"/>
-      <c r="W104" s="87"/>
-      <c r="X104" s="87"/>
-      <c r="Y104" s="87"/>
-      <c r="Z104" s="87"/>
-      <c r="AA104" s="87"/>
-      <c r="AB104" s="87"/>
-      <c r="AC104" s="87"/>
-      <c r="AD104" s="87"/>
-      <c r="AE104" s="87"/>
-      <c r="AF104" s="87"/>
+      <c r="K104" s="86"/>
+      <c r="L104" s="86"/>
+      <c r="M104" s="86"/>
+      <c r="N104" s="86"/>
+      <c r="O104" s="86"/>
+      <c r="P104" s="86"/>
+      <c r="Q104" s="86"/>
+      <c r="R104" s="86"/>
+      <c r="S104" s="86"/>
+      <c r="T104" s="86"/>
+      <c r="U104" s="86"/>
+      <c r="V104" s="86"/>
+      <c r="W104" s="86"/>
+      <c r="X104" s="86"/>
+      <c r="Y104" s="86"/>
+      <c r="Z104" s="86"/>
+      <c r="AA104" s="86"/>
+      <c r="AB104" s="86"/>
+      <c r="AC104" s="86"/>
+      <c r="AD104" s="86"/>
+      <c r="AE104" s="86"/>
+      <c r="AF104" s="86"/>
       <c r="AG104" s="4"/>
       <c r="AH104" s="4"/>
       <c r="AI104" s="31"/>
@@ -9448,28 +9447,28 @@
       <c r="H105" s="85"/>
       <c r="I105" s="85"/>
       <c r="J105" s="85"/>
-      <c r="K105" s="87"/>
-      <c r="L105" s="87"/>
-      <c r="M105" s="87"/>
-      <c r="N105" s="87"/>
-      <c r="O105" s="87"/>
-      <c r="P105" s="87"/>
-      <c r="Q105" s="87"/>
-      <c r="R105" s="87"/>
-      <c r="S105" s="87"/>
-      <c r="T105" s="87"/>
-      <c r="U105" s="87"/>
-      <c r="V105" s="87"/>
-      <c r="W105" s="87"/>
-      <c r="X105" s="87"/>
-      <c r="Y105" s="87"/>
-      <c r="Z105" s="87"/>
-      <c r="AA105" s="87"/>
-      <c r="AB105" s="87"/>
-      <c r="AC105" s="87"/>
-      <c r="AD105" s="87"/>
-      <c r="AE105" s="87"/>
-      <c r="AF105" s="87"/>
+      <c r="K105" s="86"/>
+      <c r="L105" s="86"/>
+      <c r="M105" s="86"/>
+      <c r="N105" s="86"/>
+      <c r="O105" s="86"/>
+      <c r="P105" s="86"/>
+      <c r="Q105" s="86"/>
+      <c r="R105" s="86"/>
+      <c r="S105" s="86"/>
+      <c r="T105" s="86"/>
+      <c r="U105" s="86"/>
+      <c r="V105" s="86"/>
+      <c r="W105" s="86"/>
+      <c r="X105" s="86"/>
+      <c r="Y105" s="86"/>
+      <c r="Z105" s="86"/>
+      <c r="AA105" s="86"/>
+      <c r="AB105" s="86"/>
+      <c r="AC105" s="86"/>
+      <c r="AD105" s="86"/>
+      <c r="AE105" s="86"/>
+      <c r="AF105" s="86"/>
       <c r="AG105" s="4"/>
       <c r="AH105" s="4"/>
       <c r="AI105" s="31"/>
@@ -9484,28 +9483,28 @@
       <c r="H106" s="85"/>
       <c r="I106" s="85"/>
       <c r="J106" s="85"/>
-      <c r="K106" s="87"/>
-      <c r="L106" s="87"/>
-      <c r="M106" s="87"/>
-      <c r="N106" s="87"/>
-      <c r="O106" s="87"/>
-      <c r="P106" s="87"/>
-      <c r="Q106" s="87"/>
-      <c r="R106" s="87"/>
-      <c r="S106" s="87"/>
-      <c r="T106" s="87"/>
-      <c r="U106" s="87"/>
-      <c r="V106" s="87"/>
-      <c r="W106" s="87"/>
-      <c r="X106" s="87"/>
-      <c r="Y106" s="87"/>
-      <c r="Z106" s="87"/>
-      <c r="AA106" s="87"/>
-      <c r="AB106" s="87"/>
-      <c r="AC106" s="87"/>
-      <c r="AD106" s="87"/>
-      <c r="AE106" s="87"/>
-      <c r="AF106" s="87"/>
+      <c r="K106" s="86"/>
+      <c r="L106" s="86"/>
+      <c r="M106" s="86"/>
+      <c r="N106" s="86"/>
+      <c r="O106" s="86"/>
+      <c r="P106" s="86"/>
+      <c r="Q106" s="86"/>
+      <c r="R106" s="86"/>
+      <c r="S106" s="86"/>
+      <c r="T106" s="86"/>
+      <c r="U106" s="86"/>
+      <c r="V106" s="86"/>
+      <c r="W106" s="86"/>
+      <c r="X106" s="86"/>
+      <c r="Y106" s="86"/>
+      <c r="Z106" s="86"/>
+      <c r="AA106" s="86"/>
+      <c r="AB106" s="86"/>
+      <c r="AC106" s="86"/>
+      <c r="AD106" s="86"/>
+      <c r="AE106" s="86"/>
+      <c r="AF106" s="86"/>
       <c r="AG106" s="4"/>
       <c r="AH106" s="4"/>
       <c r="AI106" s="31"/>
@@ -9520,28 +9519,28 @@
       <c r="H107" s="85"/>
       <c r="I107" s="85"/>
       <c r="J107" s="85"/>
-      <c r="K107" s="87"/>
-      <c r="L107" s="87"/>
-      <c r="M107" s="87"/>
-      <c r="N107" s="87"/>
-      <c r="O107" s="87"/>
-      <c r="P107" s="87"/>
-      <c r="Q107" s="87"/>
-      <c r="R107" s="87"/>
-      <c r="S107" s="87"/>
-      <c r="T107" s="87"/>
-      <c r="U107" s="87"/>
-      <c r="V107" s="87"/>
-      <c r="W107" s="87"/>
-      <c r="X107" s="87"/>
-      <c r="Y107" s="87"/>
-      <c r="Z107" s="87"/>
-      <c r="AA107" s="87"/>
-      <c r="AB107" s="87"/>
-      <c r="AC107" s="87"/>
-      <c r="AD107" s="87"/>
-      <c r="AE107" s="87"/>
-      <c r="AF107" s="87"/>
+      <c r="K107" s="86"/>
+      <c r="L107" s="86"/>
+      <c r="M107" s="86"/>
+      <c r="N107" s="86"/>
+      <c r="O107" s="86"/>
+      <c r="P107" s="86"/>
+      <c r="Q107" s="86"/>
+      <c r="R107" s="86"/>
+      <c r="S107" s="86"/>
+      <c r="T107" s="86"/>
+      <c r="U107" s="86"/>
+      <c r="V107" s="86"/>
+      <c r="W107" s="86"/>
+      <c r="X107" s="86"/>
+      <c r="Y107" s="86"/>
+      <c r="Z107" s="86"/>
+      <c r="AA107" s="86"/>
+      <c r="AB107" s="86"/>
+      <c r="AC107" s="86"/>
+      <c r="AD107" s="86"/>
+      <c r="AE107" s="86"/>
+      <c r="AF107" s="86"/>
       <c r="AG107" s="4"/>
       <c r="AH107" s="4"/>
       <c r="AI107" s="31"/>
@@ -9556,28 +9555,28 @@
       <c r="H108" s="85"/>
       <c r="I108" s="85"/>
       <c r="J108" s="85"/>
-      <c r="K108" s="87"/>
-      <c r="L108" s="87"/>
-      <c r="M108" s="87"/>
-      <c r="N108" s="87"/>
-      <c r="O108" s="87"/>
-      <c r="P108" s="87"/>
-      <c r="Q108" s="87"/>
-      <c r="R108" s="87"/>
-      <c r="S108" s="87"/>
-      <c r="T108" s="87"/>
-      <c r="U108" s="87"/>
-      <c r="V108" s="87"/>
-      <c r="W108" s="87"/>
-      <c r="X108" s="87"/>
-      <c r="Y108" s="87"/>
-      <c r="Z108" s="87"/>
-      <c r="AA108" s="87"/>
-      <c r="AB108" s="87"/>
-      <c r="AC108" s="87"/>
-      <c r="AD108" s="87"/>
-      <c r="AE108" s="87"/>
-      <c r="AF108" s="87"/>
+      <c r="K108" s="86"/>
+      <c r="L108" s="86"/>
+      <c r="M108" s="86"/>
+      <c r="N108" s="86"/>
+      <c r="O108" s="86"/>
+      <c r="P108" s="86"/>
+      <c r="Q108" s="86"/>
+      <c r="R108" s="86"/>
+      <c r="S108" s="86"/>
+      <c r="T108" s="86"/>
+      <c r="U108" s="86"/>
+      <c r="V108" s="86"/>
+      <c r="W108" s="86"/>
+      <c r="X108" s="86"/>
+      <c r="Y108" s="86"/>
+      <c r="Z108" s="86"/>
+      <c r="AA108" s="86"/>
+      <c r="AB108" s="86"/>
+      <c r="AC108" s="86"/>
+      <c r="AD108" s="86"/>
+      <c r="AE108" s="86"/>
+      <c r="AF108" s="86"/>
       <c r="AG108" s="4"/>
       <c r="AH108" s="4"/>
       <c r="AI108" s="31"/>
@@ -9592,28 +9591,28 @@
       <c r="H109" s="85"/>
       <c r="I109" s="85"/>
       <c r="J109" s="85"/>
-      <c r="K109" s="86"/>
-      <c r="L109" s="86"/>
-      <c r="M109" s="86"/>
-      <c r="N109" s="86"/>
-      <c r="O109" s="86"/>
-      <c r="P109" s="86"/>
-      <c r="Q109" s="86"/>
-      <c r="R109" s="86"/>
-      <c r="S109" s="86"/>
-      <c r="T109" s="86"/>
-      <c r="U109" s="86"/>
-      <c r="V109" s="86"/>
-      <c r="W109" s="86"/>
-      <c r="X109" s="86"/>
-      <c r="Y109" s="86"/>
-      <c r="Z109" s="86"/>
-      <c r="AA109" s="86"/>
-      <c r="AB109" s="86"/>
-      <c r="AC109" s="86"/>
-      <c r="AD109" s="86"/>
-      <c r="AE109" s="86"/>
-      <c r="AF109" s="86"/>
+      <c r="K109" s="87"/>
+      <c r="L109" s="87"/>
+      <c r="M109" s="87"/>
+      <c r="N109" s="87"/>
+      <c r="O109" s="87"/>
+      <c r="P109" s="87"/>
+      <c r="Q109" s="87"/>
+      <c r="R109" s="87"/>
+      <c r="S109" s="87"/>
+      <c r="T109" s="87"/>
+      <c r="U109" s="87"/>
+      <c r="V109" s="87"/>
+      <c r="W109" s="87"/>
+      <c r="X109" s="87"/>
+      <c r="Y109" s="87"/>
+      <c r="Z109" s="87"/>
+      <c r="AA109" s="87"/>
+      <c r="AB109" s="87"/>
+      <c r="AC109" s="87"/>
+      <c r="AD109" s="87"/>
+      <c r="AE109" s="87"/>
+      <c r="AF109" s="87"/>
       <c r="AG109" s="4"/>
       <c r="AH109" s="4"/>
       <c r="AI109" s="31"/>
@@ -9628,28 +9627,28 @@
       <c r="H110" s="85"/>
       <c r="I110" s="85"/>
       <c r="J110" s="85"/>
-      <c r="K110" s="87"/>
-      <c r="L110" s="87"/>
-      <c r="M110" s="87"/>
-      <c r="N110" s="87"/>
-      <c r="O110" s="87"/>
-      <c r="P110" s="87"/>
-      <c r="Q110" s="87"/>
-      <c r="R110" s="87"/>
-      <c r="S110" s="87"/>
-      <c r="T110" s="87"/>
-      <c r="U110" s="87"/>
-      <c r="V110" s="87"/>
-      <c r="W110" s="87"/>
-      <c r="X110" s="87"/>
-      <c r="Y110" s="87"/>
-      <c r="Z110" s="87"/>
-      <c r="AA110" s="87"/>
-      <c r="AB110" s="87"/>
-      <c r="AC110" s="87"/>
-      <c r="AD110" s="87"/>
-      <c r="AE110" s="87"/>
-      <c r="AF110" s="87"/>
+      <c r="K110" s="86"/>
+      <c r="L110" s="86"/>
+      <c r="M110" s="86"/>
+      <c r="N110" s="86"/>
+      <c r="O110" s="86"/>
+      <c r="P110" s="86"/>
+      <c r="Q110" s="86"/>
+      <c r="R110" s="86"/>
+      <c r="S110" s="86"/>
+      <c r="T110" s="86"/>
+      <c r="U110" s="86"/>
+      <c r="V110" s="86"/>
+      <c r="W110" s="86"/>
+      <c r="X110" s="86"/>
+      <c r="Y110" s="86"/>
+      <c r="Z110" s="86"/>
+      <c r="AA110" s="86"/>
+      <c r="AB110" s="86"/>
+      <c r="AC110" s="86"/>
+      <c r="AD110" s="86"/>
+      <c r="AE110" s="86"/>
+      <c r="AF110" s="86"/>
       <c r="AG110" s="4"/>
       <c r="AH110" s="4"/>
       <c r="AI110" s="31"/>

--- a/Dグループ_要件定義書.xlsx
+++ b/Dグループ_要件定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4EBFAB-044A-41CC-A86E-EC9A13601D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91301DAA-4A98-4937-80F1-087899CFCB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="795" windowWidth="9975" windowHeight="10725" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="795" windowWidth="9975" windowHeight="10725" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1184,45 +1184,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,32 +1229,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1319,6 +1295,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1336,6 +1315,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4944,154 +4944,154 @@
   <sheetData>
     <row r="1" spans="2:36" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="66"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="53"/>
     </row>
     <row r="3" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="69"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="56"/>
     </row>
     <row r="5" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="70" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="70" t="s">
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="70" t="s">
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="71"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="58"/>
     </row>
     <row r="6" spans="2:36" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="73">
+      <c r="B6" s="60">
         <f>MAX($B$5:B5)+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74">
+      <c r="C6" s="60"/>
+      <c r="D6" s="61">
         <v>43984</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76" t="s">
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="78"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
       <c r="R6" s="5" t="s">
         <v>58</v>
       </c>
@@ -5115,67 +5115,67 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="2:36" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="51">
+      <c r="B7" s="66">
         <f>MAX($B$5:B6)+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="55">
+      <c r="C7" s="67"/>
+      <c r="D7" s="68">
         <v>43985</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="54" t="s">
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="61" t="s">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="58" t="s">
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="60"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="74"/>
     </row>
     <row r="8" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="51">
+      <c r="B8" s="66">
         <f>MAX($B$5:B7)+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="8"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -5203,19 +5203,19 @@
       <c r="AJ8" s="10"/>
     </row>
     <row r="9" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="51">
+      <c r="B9" s="66">
         <f>MAX($B$5:B8)+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -5243,19 +5243,19 @@
       <c r="AJ9" s="10"/>
     </row>
     <row r="10" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="51">
+      <c r="B10" s="66">
         <f>MAX($B$5:B9)+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -5283,19 +5283,19 @@
       <c r="AJ10" s="10"/>
     </row>
     <row r="11" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="51">
+      <c r="B11" s="66">
         <f>MAX($B$5:B10)+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -5323,19 +5323,19 @@
       <c r="AJ11" s="10"/>
     </row>
     <row r="12" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="51">
+      <c r="B12" s="66">
         <f>MAX($B$5:B11)+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -5363,19 +5363,19 @@
       <c r="AJ12" s="10"/>
     </row>
     <row r="13" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="51">
+      <c r="B13" s="66">
         <f>MAX($B$5:B12)+1</f>
         <v>8</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -5403,19 +5403,19 @@
       <c r="AJ13" s="10"/>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="51">
+      <c r="B14" s="66">
         <f>MAX($B$5:B13)+1</f>
         <v>9</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="8"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -5443,19 +5443,19 @@
       <c r="AJ14" s="10"/>
     </row>
     <row r="15" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="51">
+      <c r="B15" s="66">
         <f>MAX($B$5:B14)+1</f>
         <v>10</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -5483,19 +5483,19 @@
       <c r="AJ15" s="10"/>
     </row>
     <row r="16" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="51">
+      <c r="B16" s="66">
         <f>MAX($B$5:B15)+1</f>
         <v>11</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -5523,19 +5523,19 @@
       <c r="AJ16" s="10"/>
     </row>
     <row r="17" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="51">
+      <c r="B17" s="66">
         <f>MAX($B$5:B16)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
       <c r="L17" s="8"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -5563,19 +5563,19 @@
       <c r="AJ17" s="10"/>
     </row>
     <row r="18" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="51">
+      <c r="B18" s="66">
         <f>MAX($B$5:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -5603,19 +5603,19 @@
       <c r="AJ18" s="10"/>
     </row>
     <row r="19" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="51">
+      <c r="B19" s="66">
         <f>MAX($B$5:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -5643,19 +5643,19 @@
       <c r="AJ19" s="10"/>
     </row>
     <row r="20" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="51">
+      <c r="B20" s="66">
         <f>MAX($B$5:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="8"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -5683,19 +5683,19 @@
       <c r="AJ20" s="10"/>
     </row>
     <row r="21" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="51">
+      <c r="B21" s="66">
         <f>MAX($B$5:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -5723,19 +5723,19 @@
       <c r="AJ21" s="10"/>
     </row>
     <row r="22" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="51">
+      <c r="B22" s="66">
         <f>MAX($B$5:B21)+1</f>
         <v>17</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="8"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -5763,19 +5763,19 @@
       <c r="AJ22" s="10"/>
     </row>
     <row r="23" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="51">
+      <c r="B23" s="66">
         <f>MAX($B$5:B22)+1</f>
         <v>18</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -5803,19 +5803,19 @@
       <c r="AJ23" s="10"/>
     </row>
     <row r="24" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="51">
+      <c r="B24" s="66">
         <f>MAX($B$5:B23)+1</f>
         <v>19</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -5843,19 +5843,19 @@
       <c r="AJ24" s="10"/>
     </row>
     <row r="25" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="51">
+      <c r="B25" s="66">
         <f>MAX($B$5:B24)+1</f>
         <v>20</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -5883,19 +5883,19 @@
       <c r="AJ25" s="10"/>
     </row>
     <row r="26" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="51">
+      <c r="B26" s="66">
         <f>MAX($B$5:B25)+1</f>
         <v>21</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -5923,19 +5923,19 @@
       <c r="AJ26" s="10"/>
     </row>
     <row r="27" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="51">
+      <c r="B27" s="66">
         <f>MAX($B$5:B26)+1</f>
         <v>22</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -5963,19 +5963,19 @@
       <c r="AJ27" s="10"/>
     </row>
     <row r="28" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="51">
+      <c r="B28" s="66">
         <f>MAX($B$5:B27)+1</f>
         <v>23</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="8"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -6003,19 +6003,19 @@
       <c r="AJ28" s="10"/>
     </row>
     <row r="29" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="51">
+      <c r="B29" s="66">
         <f>MAX($B$5:B28)+1</f>
         <v>24</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
       <c r="L29" s="8"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -6043,19 +6043,19 @@
       <c r="AJ29" s="10"/>
     </row>
     <row r="30" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="51">
+      <c r="B30" s="66">
         <f>MAX($B$5:B29)+1</f>
         <v>25</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="8"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -6083,19 +6083,19 @@
       <c r="AJ30" s="10"/>
     </row>
     <row r="31" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="51">
+      <c r="B31" s="66">
         <f>MAX($B$5:B30)+1</f>
         <v>26</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
       <c r="L31" s="8"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -6123,19 +6123,19 @@
       <c r="AJ31" s="10"/>
     </row>
     <row r="32" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="51">
+      <c r="B32" s="66">
         <f>MAX($B$5:B31)+1</f>
         <v>27</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="8"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -6163,19 +6163,19 @@
       <c r="AJ32" s="10"/>
     </row>
     <row r="33" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="51">
+      <c r="B33" s="66">
         <f>MAX($B$5:B32)+1</f>
         <v>28</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -6203,19 +6203,19 @@
       <c r="AJ33" s="10"/>
     </row>
     <row r="34" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="51">
+      <c r="B34" s="66">
         <f>MAX($B$5:B33)+1</f>
         <v>29</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
       <c r="L34" s="8"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -6243,19 +6243,19 @@
       <c r="AJ34" s="10"/>
     </row>
     <row r="35" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="51">
+      <c r="B35" s="66">
         <f>MAX($B$5:B34)+1</f>
         <v>30</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
       <c r="L35" s="8"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -6283,19 +6283,19 @@
       <c r="AJ35" s="10"/>
     </row>
     <row r="36" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="51">
+      <c r="B36" s="66">
         <f>MAX($B$5:B35)+1</f>
         <v>31</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
       <c r="L36" s="8"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -6323,19 +6323,19 @@
       <c r="AJ36" s="10"/>
     </row>
     <row r="37" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="51">
+      <c r="B37" s="66">
         <f>MAX($B$5:B36)+1</f>
         <v>32</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
       <c r="L37" s="8"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -6363,19 +6363,19 @@
       <c r="AJ37" s="10"/>
     </row>
     <row r="38" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="51">
+      <c r="B38" s="66">
         <f>MAX($B$5:B37)+1</f>
         <v>33</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
       <c r="L38" s="8"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -6403,19 +6403,19 @@
       <c r="AJ38" s="10"/>
     </row>
     <row r="39" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="51">
+      <c r="B39" s="66">
         <f>MAX($B$5:B38)+1</f>
         <v>34</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
       <c r="L39" s="8"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -6443,19 +6443,19 @@
       <c r="AJ39" s="10"/>
     </row>
     <row r="40" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="51">
+      <c r="B40" s="66">
         <f>MAX($B$5:B39)+1</f>
         <v>35</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
       <c r="L40" s="8"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -6483,19 +6483,19 @@
       <c r="AJ40" s="10"/>
     </row>
     <row r="41" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="51">
+      <c r="B41" s="66">
         <f>MAX($B$5:B40)+1</f>
         <v>36</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
       <c r="L41" s="8"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -6523,19 +6523,19 @@
       <c r="AJ41" s="10"/>
     </row>
     <row r="42" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="51">
+      <c r="B42" s="66">
         <f>MAX($B$5:B41)+1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
       <c r="L42" s="8"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -6563,19 +6563,19 @@
       <c r="AJ42" s="10"/>
     </row>
     <row r="43" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="51">
+      <c r="B43" s="66">
         <f>MAX($B$5:B42)+1</f>
         <v>38</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
       <c r="L43" s="8"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -6603,19 +6603,19 @@
       <c r="AJ43" s="10"/>
     </row>
     <row r="44" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="51">
+      <c r="B44" s="66">
         <f>MAX($B$5:B43)+1</f>
         <v>39</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
       <c r="L44" s="8"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -6643,19 +6643,19 @@
       <c r="AJ44" s="10"/>
     </row>
     <row r="45" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="51">
+      <c r="B45" s="66">
         <f>MAX($B$5:B44)+1</f>
         <v>40</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
       <c r="L45" s="8"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -6683,19 +6683,19 @@
       <c r="AJ45" s="10"/>
     </row>
     <row r="46" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="51">
+      <c r="B46" s="66">
         <f>MAX($B$5:B45)+1</f>
         <v>41</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
       <c r="L46" s="8"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -6723,19 +6723,19 @@
       <c r="AJ46" s="10"/>
     </row>
     <row r="47" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="51">
+      <c r="B47" s="66">
         <f>MAX($B$5:B46)+1</f>
         <v>42</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
       <c r="L47" s="8"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -6763,19 +6763,19 @@
       <c r="AJ47" s="10"/>
     </row>
     <row r="48" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="51">
+      <c r="B48" s="66">
         <f>MAX($B$5:B47)+1</f>
         <v>43</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
       <c r="L48" s="8"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -6803,19 +6803,19 @@
       <c r="AJ48" s="10"/>
     </row>
     <row r="49" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="51">
+      <c r="B49" s="66">
         <f>MAX($B$5:B48)+1</f>
         <v>44</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
       <c r="L49" s="8"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -6843,19 +6843,19 @@
       <c r="AJ49" s="10"/>
     </row>
     <row r="50" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="51">
+      <c r="B50" s="66">
         <f>MAX($B$5:B49)+1</f>
         <v>45</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
       <c r="L50" s="8"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -6883,19 +6883,19 @@
       <c r="AJ50" s="10"/>
     </row>
     <row r="51" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="51">
+      <c r="B51" s="66">
         <f>MAX($B$5:B50)+1</f>
         <v>46</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
       <c r="L51" s="8"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -6923,19 +6923,19 @@
       <c r="AJ51" s="10"/>
     </row>
     <row r="52" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="51">
+      <c r="B52" s="66">
         <f>MAX($B$5:B51)+1</f>
         <v>47</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
       <c r="L52" s="8"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -6963,19 +6963,19 @@
       <c r="AJ52" s="10"/>
     </row>
     <row r="53" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="51">
+      <c r="B53" s="66">
         <f>MAX($B$5:B52)+1</f>
         <v>48</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
       <c r="L53" s="8"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -7003,19 +7003,19 @@
       <c r="AJ53" s="10"/>
     </row>
     <row r="54" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="51">
+      <c r="B54" s="66">
         <f>MAX($B$5:B53)+1</f>
         <v>49</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
       <c r="L54" s="8"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -7043,19 +7043,19 @@
       <c r="AJ54" s="10"/>
     </row>
     <row r="55" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="51">
+      <c r="B55" s="66">
         <f>MAX($B$5:B54)+1</f>
         <v>50</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
       <c r="L55" s="8"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -7084,153 +7084,6 @@
     </row>
   </sheetData>
   <mergeCells count="159">
-    <mergeCell ref="B2:AJ3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="R5:AJ5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="R7:AJ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:K51"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="H55:K55"/>
@@ -7243,6 +7096,153 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
     <mergeCell ref="H54:K54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="R7:AJ7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="B2:AJ3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="R5:AJ5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -7274,170 +7274,170 @@
   <sheetData>
     <row r="1" spans="2:40" s="34" customFormat="1" ht="2.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="92"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="84"/>
     </row>
     <row r="3" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="96"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="89"/>
     </row>
     <row r="4" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="96"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="89"/>
     </row>
     <row r="5" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="99"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="100"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="100"/>
-      <c r="AN5" s="101"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="94"/>
     </row>
     <row r="6" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="30"/>
@@ -9334,33 +9334,33 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="85"/>
-      <c r="H102" s="85"/>
-      <c r="I102" s="85"/>
-      <c r="J102" s="85"/>
-      <c r="K102" s="85"/>
-      <c r="L102" s="85"/>
-      <c r="M102" s="85"/>
-      <c r="N102" s="85"/>
-      <c r="O102" s="85"/>
-      <c r="P102" s="85"/>
-      <c r="Q102" s="85"/>
-      <c r="R102" s="85"/>
-      <c r="S102" s="85"/>
-      <c r="T102" s="85"/>
-      <c r="U102" s="85"/>
-      <c r="V102" s="85"/>
-      <c r="W102" s="85"/>
-      <c r="X102" s="85"/>
-      <c r="Y102" s="85"/>
-      <c r="Z102" s="85"/>
-      <c r="AA102" s="85"/>
-      <c r="AB102" s="85"/>
-      <c r="AC102" s="85"/>
-      <c r="AD102" s="85"/>
-      <c r="AE102" s="85"/>
-      <c r="AF102" s="85"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="79"/>
+      <c r="J102" s="79"/>
+      <c r="K102" s="79"/>
+      <c r="L102" s="79"/>
+      <c r="M102" s="79"/>
+      <c r="N102" s="79"/>
+      <c r="O102" s="79"/>
+      <c r="P102" s="79"/>
+      <c r="Q102" s="79"/>
+      <c r="R102" s="79"/>
+      <c r="S102" s="79"/>
+      <c r="T102" s="79"/>
+      <c r="U102" s="79"/>
+      <c r="V102" s="79"/>
+      <c r="W102" s="79"/>
+      <c r="X102" s="79"/>
+      <c r="Y102" s="79"/>
+      <c r="Z102" s="79"/>
+      <c r="AA102" s="79"/>
+      <c r="AB102" s="79"/>
+      <c r="AC102" s="79"/>
+      <c r="AD102" s="79"/>
+      <c r="AE102" s="79"/>
+      <c r="AF102" s="79"/>
       <c r="AG102" s="4"/>
       <c r="AH102" s="4"/>
       <c r="AI102" s="4"/>
@@ -9370,33 +9370,33 @@
       <c r="A103" s="1"/>
       <c r="B103" s="14"/>
       <c r="C103" s="4"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="86"/>
-      <c r="L103" s="86"/>
-      <c r="M103" s="86"/>
-      <c r="N103" s="86"/>
-      <c r="O103" s="86"/>
-      <c r="P103" s="86"/>
-      <c r="Q103" s="86"/>
-      <c r="R103" s="86"/>
-      <c r="S103" s="86"/>
-      <c r="T103" s="86"/>
-      <c r="U103" s="86"/>
-      <c r="V103" s="86"/>
-      <c r="W103" s="86"/>
-      <c r="X103" s="86"/>
-      <c r="Y103" s="86"/>
-      <c r="Z103" s="86"/>
-      <c r="AA103" s="86"/>
-      <c r="AB103" s="86"/>
-      <c r="AC103" s="86"/>
-      <c r="AD103" s="86"/>
-      <c r="AE103" s="86"/>
-      <c r="AF103" s="86"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="H103" s="79"/>
+      <c r="I103" s="79"/>
+      <c r="J103" s="79"/>
+      <c r="K103" s="95"/>
+      <c r="L103" s="95"/>
+      <c r="M103" s="95"/>
+      <c r="N103" s="95"/>
+      <c r="O103" s="95"/>
+      <c r="P103" s="95"/>
+      <c r="Q103" s="95"/>
+      <c r="R103" s="95"/>
+      <c r="S103" s="95"/>
+      <c r="T103" s="95"/>
+      <c r="U103" s="95"/>
+      <c r="V103" s="95"/>
+      <c r="W103" s="95"/>
+      <c r="X103" s="95"/>
+      <c r="Y103" s="95"/>
+      <c r="Z103" s="95"/>
+      <c r="AA103" s="95"/>
+      <c r="AB103" s="95"/>
+      <c r="AC103" s="95"/>
+      <c r="AD103" s="95"/>
+      <c r="AE103" s="95"/>
+      <c r="AF103" s="95"/>
       <c r="AG103" s="4"/>
       <c r="AH103" s="4"/>
       <c r="AI103" s="31"/>
@@ -9406,33 +9406,33 @@
       <c r="A104" s="1"/>
       <c r="B104" s="14"/>
       <c r="C104" s="4"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="H104" s="85"/>
-      <c r="I104" s="85"/>
-      <c r="J104" s="85"/>
-      <c r="K104" s="86"/>
-      <c r="L104" s="86"/>
-      <c r="M104" s="86"/>
-      <c r="N104" s="86"/>
-      <c r="O104" s="86"/>
-      <c r="P104" s="86"/>
-      <c r="Q104" s="86"/>
-      <c r="R104" s="86"/>
-      <c r="S104" s="86"/>
-      <c r="T104" s="86"/>
-      <c r="U104" s="86"/>
-      <c r="V104" s="86"/>
-      <c r="W104" s="86"/>
-      <c r="X104" s="86"/>
-      <c r="Y104" s="86"/>
-      <c r="Z104" s="86"/>
-      <c r="AA104" s="86"/>
-      <c r="AB104" s="86"/>
-      <c r="AC104" s="86"/>
-      <c r="AD104" s="86"/>
-      <c r="AE104" s="86"/>
-      <c r="AF104" s="86"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="79"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="95"/>
+      <c r="L104" s="95"/>
+      <c r="M104" s="95"/>
+      <c r="N104" s="95"/>
+      <c r="O104" s="95"/>
+      <c r="P104" s="95"/>
+      <c r="Q104" s="95"/>
+      <c r="R104" s="95"/>
+      <c r="S104" s="95"/>
+      <c r="T104" s="95"/>
+      <c r="U104" s="95"/>
+      <c r="V104" s="95"/>
+      <c r="W104" s="95"/>
+      <c r="X104" s="95"/>
+      <c r="Y104" s="95"/>
+      <c r="Z104" s="95"/>
+      <c r="AA104" s="95"/>
+      <c r="AB104" s="95"/>
+      <c r="AC104" s="95"/>
+      <c r="AD104" s="95"/>
+      <c r="AE104" s="95"/>
+      <c r="AF104" s="95"/>
       <c r="AG104" s="4"/>
       <c r="AH104" s="4"/>
       <c r="AI104" s="31"/>
@@ -9442,33 +9442,33 @@
       <c r="A105" s="1"/>
       <c r="B105" s="14"/>
       <c r="C105" s="4"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="85"/>
-      <c r="I105" s="85"/>
-      <c r="J105" s="85"/>
-      <c r="K105" s="86"/>
-      <c r="L105" s="86"/>
-      <c r="M105" s="86"/>
-      <c r="N105" s="86"/>
-      <c r="O105" s="86"/>
-      <c r="P105" s="86"/>
-      <c r="Q105" s="86"/>
-      <c r="R105" s="86"/>
-      <c r="S105" s="86"/>
-      <c r="T105" s="86"/>
-      <c r="U105" s="86"/>
-      <c r="V105" s="86"/>
-      <c r="W105" s="86"/>
-      <c r="X105" s="86"/>
-      <c r="Y105" s="86"/>
-      <c r="Z105" s="86"/>
-      <c r="AA105" s="86"/>
-      <c r="AB105" s="86"/>
-      <c r="AC105" s="86"/>
-      <c r="AD105" s="86"/>
-      <c r="AE105" s="86"/>
-      <c r="AF105" s="86"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="79"/>
+      <c r="J105" s="79"/>
+      <c r="K105" s="95"/>
+      <c r="L105" s="95"/>
+      <c r="M105" s="95"/>
+      <c r="N105" s="95"/>
+      <c r="O105" s="95"/>
+      <c r="P105" s="95"/>
+      <c r="Q105" s="95"/>
+      <c r="R105" s="95"/>
+      <c r="S105" s="95"/>
+      <c r="T105" s="95"/>
+      <c r="U105" s="95"/>
+      <c r="V105" s="95"/>
+      <c r="W105" s="95"/>
+      <c r="X105" s="95"/>
+      <c r="Y105" s="95"/>
+      <c r="Z105" s="95"/>
+      <c r="AA105" s="95"/>
+      <c r="AB105" s="95"/>
+      <c r="AC105" s="95"/>
+      <c r="AD105" s="95"/>
+      <c r="AE105" s="95"/>
+      <c r="AF105" s="95"/>
       <c r="AG105" s="4"/>
       <c r="AH105" s="4"/>
       <c r="AI105" s="31"/>
@@ -9478,33 +9478,33 @@
       <c r="A106" s="1"/>
       <c r="B106" s="14"/>
       <c r="C106" s="4"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-      <c r="K106" s="86"/>
-      <c r="L106" s="86"/>
-      <c r="M106" s="86"/>
-      <c r="N106" s="86"/>
-      <c r="O106" s="86"/>
-      <c r="P106" s="86"/>
-      <c r="Q106" s="86"/>
-      <c r="R106" s="86"/>
-      <c r="S106" s="86"/>
-      <c r="T106" s="86"/>
-      <c r="U106" s="86"/>
-      <c r="V106" s="86"/>
-      <c r="W106" s="86"/>
-      <c r="X106" s="86"/>
-      <c r="Y106" s="86"/>
-      <c r="Z106" s="86"/>
-      <c r="AA106" s="86"/>
-      <c r="AB106" s="86"/>
-      <c r="AC106" s="86"/>
-      <c r="AD106" s="86"/>
-      <c r="AE106" s="86"/>
-      <c r="AF106" s="86"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="79"/>
+      <c r="K106" s="95"/>
+      <c r="L106" s="95"/>
+      <c r="M106" s="95"/>
+      <c r="N106" s="95"/>
+      <c r="O106" s="95"/>
+      <c r="P106" s="95"/>
+      <c r="Q106" s="95"/>
+      <c r="R106" s="95"/>
+      <c r="S106" s="95"/>
+      <c r="T106" s="95"/>
+      <c r="U106" s="95"/>
+      <c r="V106" s="95"/>
+      <c r="W106" s="95"/>
+      <c r="X106" s="95"/>
+      <c r="Y106" s="95"/>
+      <c r="Z106" s="95"/>
+      <c r="AA106" s="95"/>
+      <c r="AB106" s="95"/>
+      <c r="AC106" s="95"/>
+      <c r="AD106" s="95"/>
+      <c r="AE106" s="95"/>
+      <c r="AF106" s="95"/>
       <c r="AG106" s="4"/>
       <c r="AH106" s="4"/>
       <c r="AI106" s="31"/>
@@ -9514,33 +9514,33 @@
       <c r="A107" s="1"/>
       <c r="B107" s="14"/>
       <c r="C107" s="4"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="85"/>
-      <c r="I107" s="85"/>
-      <c r="J107" s="85"/>
-      <c r="K107" s="86"/>
-      <c r="L107" s="86"/>
-      <c r="M107" s="86"/>
-      <c r="N107" s="86"/>
-      <c r="O107" s="86"/>
-      <c r="P107" s="86"/>
-      <c r="Q107" s="86"/>
-      <c r="R107" s="86"/>
-      <c r="S107" s="86"/>
-      <c r="T107" s="86"/>
-      <c r="U107" s="86"/>
-      <c r="V107" s="86"/>
-      <c r="W107" s="86"/>
-      <c r="X107" s="86"/>
-      <c r="Y107" s="86"/>
-      <c r="Z107" s="86"/>
-      <c r="AA107" s="86"/>
-      <c r="AB107" s="86"/>
-      <c r="AC107" s="86"/>
-      <c r="AD107" s="86"/>
-      <c r="AE107" s="86"/>
-      <c r="AF107" s="86"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="79"/>
+      <c r="K107" s="95"/>
+      <c r="L107" s="95"/>
+      <c r="M107" s="95"/>
+      <c r="N107" s="95"/>
+      <c r="O107" s="95"/>
+      <c r="P107" s="95"/>
+      <c r="Q107" s="95"/>
+      <c r="R107" s="95"/>
+      <c r="S107" s="95"/>
+      <c r="T107" s="95"/>
+      <c r="U107" s="95"/>
+      <c r="V107" s="95"/>
+      <c r="W107" s="95"/>
+      <c r="X107" s="95"/>
+      <c r="Y107" s="95"/>
+      <c r="Z107" s="95"/>
+      <c r="AA107" s="95"/>
+      <c r="AB107" s="95"/>
+      <c r="AC107" s="95"/>
+      <c r="AD107" s="95"/>
+      <c r="AE107" s="95"/>
+      <c r="AF107" s="95"/>
       <c r="AG107" s="4"/>
       <c r="AH107" s="4"/>
       <c r="AI107" s="31"/>
@@ -9550,33 +9550,33 @@
       <c r="A108" s="1"/>
       <c r="B108" s="14"/>
       <c r="C108" s="4"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="85"/>
-      <c r="K108" s="86"/>
-      <c r="L108" s="86"/>
-      <c r="M108" s="86"/>
-      <c r="N108" s="86"/>
-      <c r="O108" s="86"/>
-      <c r="P108" s="86"/>
-      <c r="Q108" s="86"/>
-      <c r="R108" s="86"/>
-      <c r="S108" s="86"/>
-      <c r="T108" s="86"/>
-      <c r="U108" s="86"/>
-      <c r="V108" s="86"/>
-      <c r="W108" s="86"/>
-      <c r="X108" s="86"/>
-      <c r="Y108" s="86"/>
-      <c r="Z108" s="86"/>
-      <c r="AA108" s="86"/>
-      <c r="AB108" s="86"/>
-      <c r="AC108" s="86"/>
-      <c r="AD108" s="86"/>
-      <c r="AE108" s="86"/>
-      <c r="AF108" s="86"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="79"/>
+      <c r="H108" s="79"/>
+      <c r="I108" s="79"/>
+      <c r="J108" s="79"/>
+      <c r="K108" s="95"/>
+      <c r="L108" s="95"/>
+      <c r="M108" s="95"/>
+      <c r="N108" s="95"/>
+      <c r="O108" s="95"/>
+      <c r="P108" s="95"/>
+      <c r="Q108" s="95"/>
+      <c r="R108" s="95"/>
+      <c r="S108" s="95"/>
+      <c r="T108" s="95"/>
+      <c r="U108" s="95"/>
+      <c r="V108" s="95"/>
+      <c r="W108" s="95"/>
+      <c r="X108" s="95"/>
+      <c r="Y108" s="95"/>
+      <c r="Z108" s="95"/>
+      <c r="AA108" s="95"/>
+      <c r="AB108" s="95"/>
+      <c r="AC108" s="95"/>
+      <c r="AD108" s="95"/>
+      <c r="AE108" s="95"/>
+      <c r="AF108" s="95"/>
       <c r="AG108" s="4"/>
       <c r="AH108" s="4"/>
       <c r="AI108" s="31"/>
@@ -9586,33 +9586,33 @@
       <c r="A109" s="1"/>
       <c r="B109" s="14"/>
       <c r="C109" s="4"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="85"/>
-      <c r="I109" s="85"/>
-      <c r="J109" s="85"/>
-      <c r="K109" s="87"/>
-      <c r="L109" s="87"/>
-      <c r="M109" s="87"/>
-      <c r="N109" s="87"/>
-      <c r="O109" s="87"/>
-      <c r="P109" s="87"/>
-      <c r="Q109" s="87"/>
-      <c r="R109" s="87"/>
-      <c r="S109" s="87"/>
-      <c r="T109" s="87"/>
-      <c r="U109" s="87"/>
-      <c r="V109" s="87"/>
-      <c r="W109" s="87"/>
-      <c r="X109" s="87"/>
-      <c r="Y109" s="87"/>
-      <c r="Z109" s="87"/>
-      <c r="AA109" s="87"/>
-      <c r="AB109" s="87"/>
-      <c r="AC109" s="87"/>
-      <c r="AD109" s="87"/>
-      <c r="AE109" s="87"/>
-      <c r="AF109" s="87"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="79"/>
+      <c r="J109" s="79"/>
+      <c r="K109" s="96"/>
+      <c r="L109" s="96"/>
+      <c r="M109" s="96"/>
+      <c r="N109" s="96"/>
+      <c r="O109" s="96"/>
+      <c r="P109" s="96"/>
+      <c r="Q109" s="96"/>
+      <c r="R109" s="96"/>
+      <c r="S109" s="96"/>
+      <c r="T109" s="96"/>
+      <c r="U109" s="96"/>
+      <c r="V109" s="96"/>
+      <c r="W109" s="96"/>
+      <c r="X109" s="96"/>
+      <c r="Y109" s="96"/>
+      <c r="Z109" s="96"/>
+      <c r="AA109" s="96"/>
+      <c r="AB109" s="96"/>
+      <c r="AC109" s="96"/>
+      <c r="AD109" s="96"/>
+      <c r="AE109" s="96"/>
+      <c r="AF109" s="96"/>
       <c r="AG109" s="4"/>
       <c r="AH109" s="4"/>
       <c r="AI109" s="31"/>
@@ -9622,33 +9622,33 @@
       <c r="A110" s="1"/>
       <c r="B110" s="14"/>
       <c r="C110" s="4"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="85"/>
-      <c r="I110" s="85"/>
-      <c r="J110" s="85"/>
-      <c r="K110" s="86"/>
-      <c r="L110" s="86"/>
-      <c r="M110" s="86"/>
-      <c r="N110" s="86"/>
-      <c r="O110" s="86"/>
-      <c r="P110" s="86"/>
-      <c r="Q110" s="86"/>
-      <c r="R110" s="86"/>
-      <c r="S110" s="86"/>
-      <c r="T110" s="86"/>
-      <c r="U110" s="86"/>
-      <c r="V110" s="86"/>
-      <c r="W110" s="86"/>
-      <c r="X110" s="86"/>
-      <c r="Y110" s="86"/>
-      <c r="Z110" s="86"/>
-      <c r="AA110" s="86"/>
-      <c r="AB110" s="86"/>
-      <c r="AC110" s="86"/>
-      <c r="AD110" s="86"/>
-      <c r="AE110" s="86"/>
-      <c r="AF110" s="86"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="79"/>
+      <c r="I110" s="79"/>
+      <c r="J110" s="79"/>
+      <c r="K110" s="95"/>
+      <c r="L110" s="95"/>
+      <c r="M110" s="95"/>
+      <c r="N110" s="95"/>
+      <c r="O110" s="95"/>
+      <c r="P110" s="95"/>
+      <c r="Q110" s="95"/>
+      <c r="R110" s="95"/>
+      <c r="S110" s="95"/>
+      <c r="T110" s="95"/>
+      <c r="U110" s="95"/>
+      <c r="V110" s="95"/>
+      <c r="W110" s="95"/>
+      <c r="X110" s="95"/>
+      <c r="Y110" s="95"/>
+      <c r="Z110" s="95"/>
+      <c r="AA110" s="95"/>
+      <c r="AB110" s="95"/>
+      <c r="AC110" s="95"/>
+      <c r="AD110" s="95"/>
+      <c r="AE110" s="95"/>
+      <c r="AF110" s="95"/>
       <c r="AG110" s="4"/>
       <c r="AH110" s="4"/>
       <c r="AI110" s="31"/>
@@ -9788,36 +9788,36 @@
       <c r="B116" s="14"/>
       <c r="C116" s="20"/>
       <c r="D116" s="22"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="80"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="79"/>
-      <c r="I116" s="79"/>
-      <c r="J116" s="79"/>
-      <c r="K116" s="79"/>
-      <c r="L116" s="79"/>
-      <c r="M116" s="79"/>
-      <c r="N116" s="79"/>
-      <c r="O116" s="79"/>
-      <c r="P116" s="79"/>
-      <c r="Q116" s="79"/>
-      <c r="R116" s="79"/>
-      <c r="S116" s="79"/>
-      <c r="T116" s="79"/>
-      <c r="U116" s="79"/>
-      <c r="V116" s="79"/>
-      <c r="W116" s="79"/>
-      <c r="X116" s="79"/>
+      <c r="E116" s="97"/>
+      <c r="F116" s="98"/>
+      <c r="G116" s="97"/>
+      <c r="H116" s="97"/>
+      <c r="I116" s="97"/>
+      <c r="J116" s="97"/>
+      <c r="K116" s="97"/>
+      <c r="L116" s="97"/>
+      <c r="M116" s="97"/>
+      <c r="N116" s="97"/>
+      <c r="O116" s="97"/>
+      <c r="P116" s="97"/>
+      <c r="Q116" s="97"/>
+      <c r="R116" s="97"/>
+      <c r="S116" s="97"/>
+      <c r="T116" s="97"/>
+      <c r="U116" s="97"/>
+      <c r="V116" s="97"/>
+      <c r="W116" s="97"/>
+      <c r="X116" s="97"/>
       <c r="Y116" s="20"/>
       <c r="Z116" s="20"/>
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
       <c r="AD116" s="4"/>
-      <c r="AE116" s="84"/>
-      <c r="AF116" s="84"/>
-      <c r="AG116" s="84"/>
-      <c r="AH116" s="84"/>
+      <c r="AE116" s="88"/>
+      <c r="AF116" s="88"/>
+      <c r="AG116" s="88"/>
+      <c r="AH116" s="88"/>
       <c r="AI116" s="4"/>
       <c r="AN116" s="13"/>
     </row>
@@ -9825,36 +9825,36 @@
       <c r="B117" s="14"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="80"/>
-      <c r="G117" s="79"/>
-      <c r="H117" s="79"/>
-      <c r="I117" s="79"/>
-      <c r="J117" s="79"/>
-      <c r="K117" s="79"/>
-      <c r="L117" s="79"/>
-      <c r="M117" s="79"/>
-      <c r="N117" s="79"/>
-      <c r="O117" s="79"/>
-      <c r="P117" s="79"/>
-      <c r="Q117" s="79"/>
-      <c r="R117" s="79"/>
-      <c r="S117" s="79"/>
-      <c r="T117" s="79"/>
-      <c r="U117" s="79"/>
-      <c r="V117" s="79"/>
-      <c r="W117" s="79"/>
-      <c r="X117" s="79"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="97"/>
+      <c r="H117" s="97"/>
+      <c r="I117" s="97"/>
+      <c r="J117" s="97"/>
+      <c r="K117" s="97"/>
+      <c r="L117" s="97"/>
+      <c r="M117" s="97"/>
+      <c r="N117" s="97"/>
+      <c r="O117" s="97"/>
+      <c r="P117" s="97"/>
+      <c r="Q117" s="97"/>
+      <c r="R117" s="97"/>
+      <c r="S117" s="97"/>
+      <c r="T117" s="97"/>
+      <c r="U117" s="97"/>
+      <c r="V117" s="97"/>
+      <c r="W117" s="97"/>
+      <c r="X117" s="97"/>
       <c r="Y117" s="20"/>
       <c r="Z117" s="20"/>
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
       <c r="AD117" s="4"/>
-      <c r="AE117" s="84"/>
-      <c r="AF117" s="84"/>
-      <c r="AG117" s="84"/>
-      <c r="AH117" s="84"/>
+      <c r="AE117" s="88"/>
+      <c r="AF117" s="88"/>
+      <c r="AG117" s="88"/>
+      <c r="AH117" s="88"/>
       <c r="AI117" s="4"/>
       <c r="AN117" s="13"/>
     </row>
@@ -9862,36 +9862,36 @@
       <c r="B118" s="14"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="80"/>
-      <c r="G118" s="79"/>
-      <c r="H118" s="79"/>
-      <c r="I118" s="79"/>
-      <c r="J118" s="79"/>
-      <c r="K118" s="79"/>
-      <c r="L118" s="79"/>
-      <c r="M118" s="79"/>
-      <c r="N118" s="79"/>
-      <c r="O118" s="79"/>
-      <c r="P118" s="79"/>
-      <c r="Q118" s="79"/>
-      <c r="R118" s="79"/>
-      <c r="S118" s="79"/>
-      <c r="T118" s="79"/>
-      <c r="U118" s="79"/>
-      <c r="V118" s="79"/>
-      <c r="W118" s="79"/>
-      <c r="X118" s="79"/>
+      <c r="E118" s="97"/>
+      <c r="F118" s="98"/>
+      <c r="G118" s="97"/>
+      <c r="H118" s="97"/>
+      <c r="I118" s="97"/>
+      <c r="J118" s="97"/>
+      <c r="K118" s="97"/>
+      <c r="L118" s="97"/>
+      <c r="M118" s="97"/>
+      <c r="N118" s="97"/>
+      <c r="O118" s="97"/>
+      <c r="P118" s="97"/>
+      <c r="Q118" s="97"/>
+      <c r="R118" s="97"/>
+      <c r="S118" s="97"/>
+      <c r="T118" s="97"/>
+      <c r="U118" s="97"/>
+      <c r="V118" s="97"/>
+      <c r="W118" s="97"/>
+      <c r="X118" s="97"/>
       <c r="Y118" s="20"/>
       <c r="Z118" s="20"/>
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
       <c r="AD118" s="4"/>
-      <c r="AE118" s="84"/>
-      <c r="AF118" s="84"/>
-      <c r="AG118" s="84"/>
-      <c r="AH118" s="84"/>
+      <c r="AE118" s="88"/>
+      <c r="AF118" s="88"/>
+      <c r="AG118" s="88"/>
+      <c r="AH118" s="88"/>
       <c r="AI118" s="4"/>
       <c r="AN118" s="13"/>
     </row>
@@ -9899,36 +9899,36 @@
       <c r="B119" s="14"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="80"/>
-      <c r="G119" s="79"/>
-      <c r="H119" s="79"/>
-      <c r="I119" s="79"/>
-      <c r="J119" s="79"/>
-      <c r="K119" s="79"/>
-      <c r="L119" s="79"/>
-      <c r="M119" s="79"/>
-      <c r="N119" s="79"/>
-      <c r="O119" s="79"/>
-      <c r="P119" s="79"/>
-      <c r="Q119" s="79"/>
-      <c r="R119" s="79"/>
-      <c r="S119" s="79"/>
-      <c r="T119" s="79"/>
-      <c r="U119" s="79"/>
-      <c r="V119" s="79"/>
-      <c r="W119" s="79"/>
-      <c r="X119" s="79"/>
+      <c r="E119" s="97"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="97"/>
+      <c r="H119" s="97"/>
+      <c r="I119" s="97"/>
+      <c r="J119" s="97"/>
+      <c r="K119" s="97"/>
+      <c r="L119" s="97"/>
+      <c r="M119" s="97"/>
+      <c r="N119" s="97"/>
+      <c r="O119" s="97"/>
+      <c r="P119" s="97"/>
+      <c r="Q119" s="97"/>
+      <c r="R119" s="97"/>
+      <c r="S119" s="97"/>
+      <c r="T119" s="97"/>
+      <c r="U119" s="97"/>
+      <c r="V119" s="97"/>
+      <c r="W119" s="97"/>
+      <c r="X119" s="97"/>
       <c r="Y119" s="20"/>
       <c r="Z119" s="20"/>
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
       <c r="AD119" s="4"/>
-      <c r="AE119" s="83"/>
-      <c r="AF119" s="83"/>
-      <c r="AG119" s="83"/>
-      <c r="AH119" s="83"/>
+      <c r="AE119" s="99"/>
+      <c r="AF119" s="99"/>
+      <c r="AG119" s="99"/>
+      <c r="AH119" s="99"/>
       <c r="AI119" s="4"/>
       <c r="AN119" s="13"/>
     </row>
@@ -9936,36 +9936,36 @@
       <c r="B120" s="14"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="80"/>
-      <c r="G120" s="79"/>
-      <c r="H120" s="79"/>
-      <c r="I120" s="79"/>
-      <c r="J120" s="79"/>
-      <c r="K120" s="79"/>
-      <c r="L120" s="79"/>
-      <c r="M120" s="79"/>
-      <c r="N120" s="79"/>
-      <c r="O120" s="79"/>
-      <c r="P120" s="79"/>
-      <c r="Q120" s="79"/>
-      <c r="R120" s="79"/>
-      <c r="S120" s="79"/>
-      <c r="T120" s="79"/>
-      <c r="U120" s="79"/>
-      <c r="V120" s="79"/>
-      <c r="W120" s="79"/>
-      <c r="X120" s="79"/>
+      <c r="E120" s="97"/>
+      <c r="F120" s="98"/>
+      <c r="G120" s="97"/>
+      <c r="H120" s="97"/>
+      <c r="I120" s="97"/>
+      <c r="J120" s="97"/>
+      <c r="K120" s="97"/>
+      <c r="L120" s="97"/>
+      <c r="M120" s="97"/>
+      <c r="N120" s="97"/>
+      <c r="O120" s="97"/>
+      <c r="P120" s="97"/>
+      <c r="Q120" s="97"/>
+      <c r="R120" s="97"/>
+      <c r="S120" s="97"/>
+      <c r="T120" s="97"/>
+      <c r="U120" s="97"/>
+      <c r="V120" s="97"/>
+      <c r="W120" s="97"/>
+      <c r="X120" s="97"/>
       <c r="Y120" s="20"/>
       <c r="Z120" s="20"/>
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
       <c r="AD120" s="4"/>
-      <c r="AE120" s="83"/>
-      <c r="AF120" s="83"/>
-      <c r="AG120" s="83"/>
-      <c r="AH120" s="83"/>
+      <c r="AE120" s="99"/>
+      <c r="AF120" s="99"/>
+      <c r="AG120" s="99"/>
+      <c r="AH120" s="99"/>
       <c r="AI120" s="4"/>
       <c r="AN120" s="13"/>
     </row>
@@ -9973,36 +9973,36 @@
       <c r="B121" s="14"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="80"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="79"/>
-      <c r="I121" s="79"/>
-      <c r="J121" s="79"/>
-      <c r="K121" s="79"/>
-      <c r="L121" s="79"/>
-      <c r="M121" s="79"/>
-      <c r="N121" s="79"/>
-      <c r="O121" s="79"/>
-      <c r="P121" s="79"/>
-      <c r="Q121" s="79"/>
-      <c r="R121" s="79"/>
-      <c r="S121" s="79"/>
-      <c r="T121" s="79"/>
-      <c r="U121" s="79"/>
-      <c r="V121" s="79"/>
-      <c r="W121" s="79"/>
-      <c r="X121" s="79"/>
+      <c r="E121" s="97"/>
+      <c r="F121" s="98"/>
+      <c r="G121" s="97"/>
+      <c r="H121" s="97"/>
+      <c r="I121" s="97"/>
+      <c r="J121" s="97"/>
+      <c r="K121" s="97"/>
+      <c r="L121" s="97"/>
+      <c r="M121" s="97"/>
+      <c r="N121" s="97"/>
+      <c r="O121" s="97"/>
+      <c r="P121" s="97"/>
+      <c r="Q121" s="97"/>
+      <c r="R121" s="97"/>
+      <c r="S121" s="97"/>
+      <c r="T121" s="97"/>
+      <c r="U121" s="97"/>
+      <c r="V121" s="97"/>
+      <c r="W121" s="97"/>
+      <c r="X121" s="97"/>
       <c r="Y121" s="20"/>
       <c r="Z121" s="20"/>
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
       <c r="AD121" s="4"/>
-      <c r="AE121" s="83"/>
-      <c r="AF121" s="83"/>
-      <c r="AG121" s="83"/>
-      <c r="AH121" s="83"/>
+      <c r="AE121" s="99"/>
+      <c r="AF121" s="99"/>
+      <c r="AG121" s="99"/>
+      <c r="AH121" s="99"/>
       <c r="AI121" s="4"/>
       <c r="AN121" s="13"/>
       <c r="AY121" s="4"/>
@@ -10029,36 +10029,36 @@
       <c r="B122" s="14"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="79"/>
-      <c r="I122" s="79"/>
-      <c r="J122" s="79"/>
-      <c r="K122" s="79"/>
-      <c r="L122" s="79"/>
-      <c r="M122" s="79"/>
-      <c r="N122" s="79"/>
-      <c r="O122" s="79"/>
-      <c r="P122" s="79"/>
-      <c r="Q122" s="79"/>
-      <c r="R122" s="79"/>
-      <c r="S122" s="79"/>
-      <c r="T122" s="79"/>
-      <c r="U122" s="79"/>
-      <c r="V122" s="79"/>
-      <c r="W122" s="79"/>
-      <c r="X122" s="79"/>
+      <c r="E122" s="97"/>
+      <c r="F122" s="98"/>
+      <c r="G122" s="97"/>
+      <c r="H122" s="97"/>
+      <c r="I122" s="97"/>
+      <c r="J122" s="97"/>
+      <c r="K122" s="97"/>
+      <c r="L122" s="97"/>
+      <c r="M122" s="97"/>
+      <c r="N122" s="97"/>
+      <c r="O122" s="97"/>
+      <c r="P122" s="97"/>
+      <c r="Q122" s="97"/>
+      <c r="R122" s="97"/>
+      <c r="S122" s="97"/>
+      <c r="T122" s="97"/>
+      <c r="U122" s="97"/>
+      <c r="V122" s="97"/>
+      <c r="W122" s="97"/>
+      <c r="X122" s="97"/>
       <c r="Y122" s="20"/>
       <c r="Z122" s="20"/>
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
       <c r="AD122" s="4"/>
-      <c r="AE122" s="84"/>
-      <c r="AF122" s="84"/>
-      <c r="AG122" s="84"/>
-      <c r="AH122" s="84"/>
+      <c r="AE122" s="88"/>
+      <c r="AF122" s="88"/>
+      <c r="AG122" s="88"/>
+      <c r="AH122" s="88"/>
       <c r="AI122" s="4"/>
       <c r="AN122" s="13"/>
       <c r="AY122" s="4"/>
@@ -10085,36 +10085,36 @@
       <c r="B123" s="14"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="79"/>
-      <c r="I123" s="79"/>
-      <c r="J123" s="79"/>
-      <c r="K123" s="79"/>
-      <c r="L123" s="79"/>
-      <c r="M123" s="79"/>
-      <c r="N123" s="79"/>
-      <c r="O123" s="79"/>
-      <c r="P123" s="79"/>
-      <c r="Q123" s="79"/>
-      <c r="R123" s="79"/>
-      <c r="S123" s="79"/>
-      <c r="T123" s="79"/>
-      <c r="U123" s="79"/>
-      <c r="V123" s="79"/>
-      <c r="W123" s="79"/>
-      <c r="X123" s="79"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="98"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="97"/>
+      <c r="J123" s="97"/>
+      <c r="K123" s="97"/>
+      <c r="L123" s="97"/>
+      <c r="M123" s="97"/>
+      <c r="N123" s="97"/>
+      <c r="O123" s="97"/>
+      <c r="P123" s="97"/>
+      <c r="Q123" s="97"/>
+      <c r="R123" s="97"/>
+      <c r="S123" s="97"/>
+      <c r="T123" s="97"/>
+      <c r="U123" s="97"/>
+      <c r="V123" s="97"/>
+      <c r="W123" s="97"/>
+      <c r="X123" s="97"/>
       <c r="Y123" s="20"/>
       <c r="Z123" s="20"/>
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
       <c r="AD123" s="4"/>
-      <c r="AE123" s="84"/>
-      <c r="AF123" s="84"/>
-      <c r="AG123" s="84"/>
-      <c r="AH123" s="84"/>
+      <c r="AE123" s="88"/>
+      <c r="AF123" s="88"/>
+      <c r="AG123" s="88"/>
+      <c r="AH123" s="88"/>
       <c r="AI123" s="4"/>
       <c r="AN123" s="13"/>
       <c r="AY123" s="4"/>
@@ -10141,36 +10141,36 @@
       <c r="B124" s="14"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="80"/>
-      <c r="G124" s="79"/>
-      <c r="H124" s="79"/>
-      <c r="I124" s="79"/>
-      <c r="J124" s="79"/>
-      <c r="K124" s="79"/>
-      <c r="L124" s="79"/>
-      <c r="M124" s="79"/>
-      <c r="N124" s="79"/>
-      <c r="O124" s="79"/>
-      <c r="P124" s="79"/>
-      <c r="Q124" s="79"/>
-      <c r="R124" s="79"/>
-      <c r="S124" s="79"/>
-      <c r="T124" s="79"/>
-      <c r="U124" s="79"/>
-      <c r="V124" s="79"/>
-      <c r="W124" s="79"/>
-      <c r="X124" s="79"/>
+      <c r="E124" s="97"/>
+      <c r="F124" s="98"/>
+      <c r="G124" s="97"/>
+      <c r="H124" s="97"/>
+      <c r="I124" s="97"/>
+      <c r="J124" s="97"/>
+      <c r="K124" s="97"/>
+      <c r="L124" s="97"/>
+      <c r="M124" s="97"/>
+      <c r="N124" s="97"/>
+      <c r="O124" s="97"/>
+      <c r="P124" s="97"/>
+      <c r="Q124" s="97"/>
+      <c r="R124" s="97"/>
+      <c r="S124" s="97"/>
+      <c r="T124" s="97"/>
+      <c r="U124" s="97"/>
+      <c r="V124" s="97"/>
+      <c r="W124" s="97"/>
+      <c r="X124" s="97"/>
       <c r="Y124" s="20"/>
       <c r="Z124" s="20"/>
       <c r="AA124" s="4"/>
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
       <c r="AD124" s="4"/>
-      <c r="AE124" s="84"/>
-      <c r="AF124" s="84"/>
-      <c r="AG124" s="84"/>
-      <c r="AH124" s="84"/>
+      <c r="AE124" s="88"/>
+      <c r="AF124" s="88"/>
+      <c r="AG124" s="88"/>
+      <c r="AH124" s="88"/>
       <c r="AI124" s="4"/>
       <c r="AN124" s="13"/>
     </row>
@@ -10178,36 +10178,36 @@
       <c r="B125" s="14"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
-      <c r="E125" s="79"/>
-      <c r="F125" s="80"/>
-      <c r="G125" s="79"/>
-      <c r="H125" s="79"/>
-      <c r="I125" s="79"/>
-      <c r="J125" s="79"/>
-      <c r="K125" s="79"/>
-      <c r="L125" s="79"/>
-      <c r="M125" s="79"/>
-      <c r="N125" s="79"/>
-      <c r="O125" s="79"/>
-      <c r="P125" s="79"/>
-      <c r="Q125" s="79"/>
-      <c r="R125" s="79"/>
-      <c r="S125" s="79"/>
-      <c r="T125" s="79"/>
-      <c r="U125" s="79"/>
-      <c r="V125" s="79"/>
-      <c r="W125" s="79"/>
-      <c r="X125" s="79"/>
+      <c r="E125" s="97"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="97"/>
+      <c r="H125" s="97"/>
+      <c r="I125" s="97"/>
+      <c r="J125" s="97"/>
+      <c r="K125" s="97"/>
+      <c r="L125" s="97"/>
+      <c r="M125" s="97"/>
+      <c r="N125" s="97"/>
+      <c r="O125" s="97"/>
+      <c r="P125" s="97"/>
+      <c r="Q125" s="97"/>
+      <c r="R125" s="97"/>
+      <c r="S125" s="97"/>
+      <c r="T125" s="97"/>
+      <c r="U125" s="97"/>
+      <c r="V125" s="97"/>
+      <c r="W125" s="97"/>
+      <c r="X125" s="97"/>
       <c r="Y125" s="20"/>
       <c r="Z125" s="20"/>
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
       <c r="AD125" s="4"/>
-      <c r="AE125" s="84"/>
-      <c r="AF125" s="84"/>
-      <c r="AG125" s="84"/>
-      <c r="AH125" s="84"/>
+      <c r="AE125" s="88"/>
+      <c r="AF125" s="88"/>
+      <c r="AG125" s="88"/>
+      <c r="AH125" s="88"/>
       <c r="AI125" s="4"/>
       <c r="AN125" s="13"/>
     </row>
@@ -10215,26 +10215,26 @@
       <c r="B126" s="14"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="80"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="79"/>
-      <c r="I126" s="79"/>
-      <c r="J126" s="79"/>
-      <c r="K126" s="79"/>
-      <c r="L126" s="79"/>
-      <c r="M126" s="79"/>
-      <c r="N126" s="79"/>
-      <c r="O126" s="79"/>
-      <c r="P126" s="79"/>
-      <c r="Q126" s="79"/>
-      <c r="R126" s="79"/>
-      <c r="S126" s="79"/>
-      <c r="T126" s="79"/>
-      <c r="U126" s="79"/>
-      <c r="V126" s="79"/>
-      <c r="W126" s="79"/>
-      <c r="X126" s="79"/>
+      <c r="E126" s="97"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="97"/>
+      <c r="H126" s="97"/>
+      <c r="I126" s="97"/>
+      <c r="J126" s="97"/>
+      <c r="K126" s="97"/>
+      <c r="L126" s="97"/>
+      <c r="M126" s="97"/>
+      <c r="N126" s="97"/>
+      <c r="O126" s="97"/>
+      <c r="P126" s="97"/>
+      <c r="Q126" s="97"/>
+      <c r="R126" s="97"/>
+      <c r="S126" s="97"/>
+      <c r="T126" s="97"/>
+      <c r="U126" s="97"/>
+      <c r="V126" s="97"/>
+      <c r="W126" s="97"/>
+      <c r="X126" s="97"/>
       <c r="Y126" s="20"/>
       <c r="Z126" s="20"/>
       <c r="AA126" s="4"/>
@@ -10289,24 +10289,24 @@
       <c r="B128" s="14"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
-      <c r="E128" s="81"/>
-      <c r="F128" s="82"/>
-      <c r="G128" s="82"/>
-      <c r="H128" s="82"/>
-      <c r="I128" s="82"/>
-      <c r="J128" s="82"/>
-      <c r="K128" s="82"/>
-      <c r="L128" s="82"/>
-      <c r="M128" s="82"/>
-      <c r="N128" s="82"/>
-      <c r="O128" s="82"/>
-      <c r="P128" s="82"/>
-      <c r="Q128" s="82"/>
-      <c r="R128" s="82"/>
-      <c r="S128" s="82"/>
-      <c r="T128" s="82"/>
-      <c r="U128" s="82"/>
-      <c r="V128" s="82"/>
+      <c r="E128" s="100"/>
+      <c r="F128" s="101"/>
+      <c r="G128" s="101"/>
+      <c r="H128" s="101"/>
+      <c r="I128" s="101"/>
+      <c r="J128" s="101"/>
+      <c r="K128" s="101"/>
+      <c r="L128" s="101"/>
+      <c r="M128" s="101"/>
+      <c r="N128" s="101"/>
+      <c r="O128" s="101"/>
+      <c r="P128" s="101"/>
+      <c r="Q128" s="101"/>
+      <c r="R128" s="101"/>
+      <c r="S128" s="101"/>
+      <c r="T128" s="101"/>
+      <c r="U128" s="101"/>
+      <c r="V128" s="101"/>
       <c r="W128" s="20"/>
       <c r="X128" s="20"/>
       <c r="Y128" s="20"/>
@@ -10326,24 +10326,24 @@
       <c r="B129" s="14"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="82"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="82"/>
-      <c r="I129" s="82"/>
-      <c r="J129" s="82"/>
-      <c r="K129" s="82"/>
-      <c r="L129" s="82"/>
-      <c r="M129" s="82"/>
-      <c r="N129" s="82"/>
-      <c r="O129" s="82"/>
-      <c r="P129" s="82"/>
-      <c r="Q129" s="82"/>
-      <c r="R129" s="82"/>
-      <c r="S129" s="82"/>
-      <c r="T129" s="82"/>
-      <c r="U129" s="82"/>
-      <c r="V129" s="82"/>
+      <c r="E129" s="101"/>
+      <c r="F129" s="101"/>
+      <c r="G129" s="101"/>
+      <c r="H129" s="101"/>
+      <c r="I129" s="101"/>
+      <c r="J129" s="101"/>
+      <c r="K129" s="101"/>
+      <c r="L129" s="101"/>
+      <c r="M129" s="101"/>
+      <c r="N129" s="101"/>
+      <c r="O129" s="101"/>
+      <c r="P129" s="101"/>
+      <c r="Q129" s="101"/>
+      <c r="R129" s="101"/>
+      <c r="S129" s="101"/>
+      <c r="T129" s="101"/>
+      <c r="U129" s="101"/>
+      <c r="V129" s="101"/>
       <c r="W129" s="20"/>
       <c r="X129" s="20"/>
       <c r="Y129" s="20"/>
@@ -10363,24 +10363,24 @@
       <c r="B130" s="14"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
-      <c r="E130" s="82"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="82"/>
-      <c r="H130" s="82"/>
-      <c r="I130" s="82"/>
-      <c r="J130" s="82"/>
-      <c r="K130" s="82"/>
-      <c r="L130" s="82"/>
-      <c r="M130" s="82"/>
-      <c r="N130" s="82"/>
-      <c r="O130" s="82"/>
-      <c r="P130" s="82"/>
-      <c r="Q130" s="82"/>
-      <c r="R130" s="82"/>
-      <c r="S130" s="82"/>
-      <c r="T130" s="82"/>
-      <c r="U130" s="82"/>
-      <c r="V130" s="82"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="101"/>
+      <c r="I130" s="101"/>
+      <c r="J130" s="101"/>
+      <c r="K130" s="101"/>
+      <c r="L130" s="101"/>
+      <c r="M130" s="101"/>
+      <c r="N130" s="101"/>
+      <c r="O130" s="101"/>
+      <c r="P130" s="101"/>
+      <c r="Q130" s="101"/>
+      <c r="R130" s="101"/>
+      <c r="S130" s="101"/>
+      <c r="T130" s="101"/>
+      <c r="U130" s="101"/>
+      <c r="V130" s="101"/>
       <c r="W130" s="20"/>
       <c r="X130" s="20"/>
       <c r="Y130" s="20"/>
@@ -10749,40 +10749,11 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="K102:AF102"/>
-    <mergeCell ref="B2:AN5"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="K103:AF103"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="K104:AF104"/>
-    <mergeCell ref="F105:J105"/>
-    <mergeCell ref="K105:AF105"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="K106:AF106"/>
-    <mergeCell ref="F107:J107"/>
-    <mergeCell ref="K107:AF107"/>
-    <mergeCell ref="F108:J108"/>
-    <mergeCell ref="K108:AF108"/>
-    <mergeCell ref="F109:J109"/>
-    <mergeCell ref="K109:AF109"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="K110:AF110"/>
-    <mergeCell ref="E116:S116"/>
-    <mergeCell ref="T116:X116"/>
-    <mergeCell ref="AE116:AH116"/>
-    <mergeCell ref="E117:S117"/>
-    <mergeCell ref="T117:X117"/>
-    <mergeCell ref="AE117:AH117"/>
-    <mergeCell ref="E118:S118"/>
-    <mergeCell ref="T118:X118"/>
-    <mergeCell ref="AE118:AH118"/>
-    <mergeCell ref="E119:S119"/>
-    <mergeCell ref="T119:X119"/>
-    <mergeCell ref="AE119:AH119"/>
-    <mergeCell ref="E120:S120"/>
-    <mergeCell ref="T120:X120"/>
-    <mergeCell ref="AE120:AH120"/>
+    <mergeCell ref="E126:S126"/>
+    <mergeCell ref="T126:X126"/>
+    <mergeCell ref="E128:V130"/>
+    <mergeCell ref="E124:S124"/>
+    <mergeCell ref="T124:X124"/>
     <mergeCell ref="E121:S121"/>
     <mergeCell ref="T121:X121"/>
     <mergeCell ref="AE121:AH121"/>
@@ -10796,11 +10767,40 @@
     <mergeCell ref="E123:S123"/>
     <mergeCell ref="T123:X123"/>
     <mergeCell ref="AE123:AH123"/>
-    <mergeCell ref="E126:S126"/>
-    <mergeCell ref="T126:X126"/>
-    <mergeCell ref="E128:V130"/>
-    <mergeCell ref="E124:S124"/>
-    <mergeCell ref="T124:X124"/>
+    <mergeCell ref="E119:S119"/>
+    <mergeCell ref="T119:X119"/>
+    <mergeCell ref="AE119:AH119"/>
+    <mergeCell ref="E120:S120"/>
+    <mergeCell ref="T120:X120"/>
+    <mergeCell ref="AE120:AH120"/>
+    <mergeCell ref="E117:S117"/>
+    <mergeCell ref="T117:X117"/>
+    <mergeCell ref="AE117:AH117"/>
+    <mergeCell ref="E118:S118"/>
+    <mergeCell ref="T118:X118"/>
+    <mergeCell ref="AE118:AH118"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="K110:AF110"/>
+    <mergeCell ref="E116:S116"/>
+    <mergeCell ref="T116:X116"/>
+    <mergeCell ref="AE116:AH116"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="K107:AF107"/>
+    <mergeCell ref="F108:J108"/>
+    <mergeCell ref="K108:AF108"/>
+    <mergeCell ref="F109:J109"/>
+    <mergeCell ref="K109:AF109"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="K104:AF104"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="K105:AF105"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="K106:AF106"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="K102:AF102"/>
+    <mergeCell ref="B2:AN5"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="K103:AF103"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>

--- a/Dグループ_要件定義書.xlsx
+++ b/Dグループ_要件定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\# グループディスカッション\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3E62C4-751D-47FA-9F04-6E330285B1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608B3A30-2330-4CC1-A247-22C07DB30144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="9975" windowHeight="10725" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>要件定義書</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>最終更新者</t>
-  </si>
-  <si>
-    <t>新垣</t>
   </si>
   <si>
     <t>　</t>
@@ -1187,45 +1184,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,32 +1229,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,6 +1295,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1339,6 +1315,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2995,7 +2992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V60" sqref="V60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3005,7 +3004,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3043,7 +3042,7 @@
     </row>
     <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3081,7 +3080,7 @@
     </row>
     <row r="3" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3119,7 +3118,7 @@
     </row>
     <row r="4" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3157,7 +3156,7 @@
     </row>
     <row r="5" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3195,7 +3194,7 @@
     </row>
     <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3233,7 +3232,7 @@
     </row>
     <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4825,7 +4824,7 @@
       <c r="T58" s="46"/>
       <c r="U58" s="46"/>
       <c r="V58" s="49" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="W58" s="50"/>
       <c r="X58" s="50"/>
@@ -4945,156 +4944,156 @@
   <sheetData>
     <row r="1" spans="2:36" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="66"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="53"/>
     </row>
     <row r="3" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="69"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="56"/>
     </row>
     <row r="5" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="70" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="70" t="s">
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="70" t="s">
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="71"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="58"/>
     </row>
     <row r="6" spans="2:36" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="73">
+      <c r="B6" s="60">
         <f>MAX($B$5:B5)+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74">
+      <c r="C6" s="60"/>
+      <c r="D6" s="61">
         <v>43984</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="78"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
       <c r="R6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -5116,67 +5115,67 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="2:36" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="51">
+      <c r="B7" s="66">
         <f>MAX($B$5:B6)+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="55">
+      <c r="C7" s="67"/>
+      <c r="D7" s="68">
         <v>43985</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="58" t="s">
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="60"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="74"/>
     </row>
     <row r="8" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="51">
+      <c r="B8" s="66">
         <f>MAX($B$5:B7)+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="8"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -5204,19 +5203,19 @@
       <c r="AJ8" s="10"/>
     </row>
     <row r="9" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="51">
+      <c r="B9" s="66">
         <f>MAX($B$5:B8)+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -5244,19 +5243,19 @@
       <c r="AJ9" s="10"/>
     </row>
     <row r="10" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="51">
+      <c r="B10" s="66">
         <f>MAX($B$5:B9)+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -5284,19 +5283,19 @@
       <c r="AJ10" s="10"/>
     </row>
     <row r="11" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="51">
+      <c r="B11" s="66">
         <f>MAX($B$5:B10)+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -5324,19 +5323,19 @@
       <c r="AJ11" s="10"/>
     </row>
     <row r="12" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="51">
+      <c r="B12" s="66">
         <f>MAX($B$5:B11)+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -5364,19 +5363,19 @@
       <c r="AJ12" s="10"/>
     </row>
     <row r="13" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="51">
+      <c r="B13" s="66">
         <f>MAX($B$5:B12)+1</f>
         <v>8</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -5404,19 +5403,19 @@
       <c r="AJ13" s="10"/>
     </row>
     <row r="14" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="51">
+      <c r="B14" s="66">
         <f>MAX($B$5:B13)+1</f>
         <v>9</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="8"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -5444,19 +5443,19 @@
       <c r="AJ14" s="10"/>
     </row>
     <row r="15" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="51">
+      <c r="B15" s="66">
         <f>MAX($B$5:B14)+1</f>
         <v>10</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -5484,19 +5483,19 @@
       <c r="AJ15" s="10"/>
     </row>
     <row r="16" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="51">
+      <c r="B16" s="66">
         <f>MAX($B$5:B15)+1</f>
         <v>11</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -5524,19 +5523,19 @@
       <c r="AJ16" s="10"/>
     </row>
     <row r="17" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="51">
+      <c r="B17" s="66">
         <f>MAX($B$5:B16)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
       <c r="L17" s="8"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -5564,19 +5563,19 @@
       <c r="AJ17" s="10"/>
     </row>
     <row r="18" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="51">
+      <c r="B18" s="66">
         <f>MAX($B$5:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -5604,19 +5603,19 @@
       <c r="AJ18" s="10"/>
     </row>
     <row r="19" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="51">
+      <c r="B19" s="66">
         <f>MAX($B$5:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -5644,19 +5643,19 @@
       <c r="AJ19" s="10"/>
     </row>
     <row r="20" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="51">
+      <c r="B20" s="66">
         <f>MAX($B$5:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="8"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -5684,19 +5683,19 @@
       <c r="AJ20" s="10"/>
     </row>
     <row r="21" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="51">
+      <c r="B21" s="66">
         <f>MAX($B$5:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -5724,19 +5723,19 @@
       <c r="AJ21" s="10"/>
     </row>
     <row r="22" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="51">
+      <c r="B22" s="66">
         <f>MAX($B$5:B21)+1</f>
         <v>17</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="8"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -5764,19 +5763,19 @@
       <c r="AJ22" s="10"/>
     </row>
     <row r="23" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="51">
+      <c r="B23" s="66">
         <f>MAX($B$5:B22)+1</f>
         <v>18</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -5804,19 +5803,19 @@
       <c r="AJ23" s="10"/>
     </row>
     <row r="24" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="51">
+      <c r="B24" s="66">
         <f>MAX($B$5:B23)+1</f>
         <v>19</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -5844,19 +5843,19 @@
       <c r="AJ24" s="10"/>
     </row>
     <row r="25" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="51">
+      <c r="B25" s="66">
         <f>MAX($B$5:B24)+1</f>
         <v>20</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -5884,19 +5883,19 @@
       <c r="AJ25" s="10"/>
     </row>
     <row r="26" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="51">
+      <c r="B26" s="66">
         <f>MAX($B$5:B25)+1</f>
         <v>21</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -5924,19 +5923,19 @@
       <c r="AJ26" s="10"/>
     </row>
     <row r="27" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="51">
+      <c r="B27" s="66">
         <f>MAX($B$5:B26)+1</f>
         <v>22</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -5964,19 +5963,19 @@
       <c r="AJ27" s="10"/>
     </row>
     <row r="28" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="51">
+      <c r="B28" s="66">
         <f>MAX($B$5:B27)+1</f>
         <v>23</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="8"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -6004,19 +6003,19 @@
       <c r="AJ28" s="10"/>
     </row>
     <row r="29" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="51">
+      <c r="B29" s="66">
         <f>MAX($B$5:B28)+1</f>
         <v>24</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
       <c r="L29" s="8"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -6044,19 +6043,19 @@
       <c r="AJ29" s="10"/>
     </row>
     <row r="30" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="51">
+      <c r="B30" s="66">
         <f>MAX($B$5:B29)+1</f>
         <v>25</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="8"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -6084,19 +6083,19 @@
       <c r="AJ30" s="10"/>
     </row>
     <row r="31" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="51">
+      <c r="B31" s="66">
         <f>MAX($B$5:B30)+1</f>
         <v>26</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
       <c r="L31" s="8"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -6124,19 +6123,19 @@
       <c r="AJ31" s="10"/>
     </row>
     <row r="32" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="51">
+      <c r="B32" s="66">
         <f>MAX($B$5:B31)+1</f>
         <v>27</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="8"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -6164,19 +6163,19 @@
       <c r="AJ32" s="10"/>
     </row>
     <row r="33" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="51">
+      <c r="B33" s="66">
         <f>MAX($B$5:B32)+1</f>
         <v>28</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -6204,19 +6203,19 @@
       <c r="AJ33" s="10"/>
     </row>
     <row r="34" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="51">
+      <c r="B34" s="66">
         <f>MAX($B$5:B33)+1</f>
         <v>29</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
       <c r="L34" s="8"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -6244,19 +6243,19 @@
       <c r="AJ34" s="10"/>
     </row>
     <row r="35" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="51">
+      <c r="B35" s="66">
         <f>MAX($B$5:B34)+1</f>
         <v>30</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
       <c r="L35" s="8"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -6284,19 +6283,19 @@
       <c r="AJ35" s="10"/>
     </row>
     <row r="36" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="51">
+      <c r="B36" s="66">
         <f>MAX($B$5:B35)+1</f>
         <v>31</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
       <c r="L36" s="8"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -6324,19 +6323,19 @@
       <c r="AJ36" s="10"/>
     </row>
     <row r="37" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="51">
+      <c r="B37" s="66">
         <f>MAX($B$5:B36)+1</f>
         <v>32</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
       <c r="L37" s="8"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -6364,19 +6363,19 @@
       <c r="AJ37" s="10"/>
     </row>
     <row r="38" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="51">
+      <c r="B38" s="66">
         <f>MAX($B$5:B37)+1</f>
         <v>33</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
       <c r="L38" s="8"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -6404,19 +6403,19 @@
       <c r="AJ38" s="10"/>
     </row>
     <row r="39" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="51">
+      <c r="B39" s="66">
         <f>MAX($B$5:B38)+1</f>
         <v>34</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
       <c r="L39" s="8"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -6444,19 +6443,19 @@
       <c r="AJ39" s="10"/>
     </row>
     <row r="40" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="51">
+      <c r="B40" s="66">
         <f>MAX($B$5:B39)+1</f>
         <v>35</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
       <c r="L40" s="8"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -6484,19 +6483,19 @@
       <c r="AJ40" s="10"/>
     </row>
     <row r="41" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="51">
+      <c r="B41" s="66">
         <f>MAX($B$5:B40)+1</f>
         <v>36</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
       <c r="L41" s="8"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -6524,19 +6523,19 @@
       <c r="AJ41" s="10"/>
     </row>
     <row r="42" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="51">
+      <c r="B42" s="66">
         <f>MAX($B$5:B41)+1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
       <c r="L42" s="8"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -6564,19 +6563,19 @@
       <c r="AJ42" s="10"/>
     </row>
     <row r="43" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="51">
+      <c r="B43" s="66">
         <f>MAX($B$5:B42)+1</f>
         <v>38</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
       <c r="L43" s="8"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -6604,19 +6603,19 @@
       <c r="AJ43" s="10"/>
     </row>
     <row r="44" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="51">
+      <c r="B44" s="66">
         <f>MAX($B$5:B43)+1</f>
         <v>39</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
       <c r="L44" s="8"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -6644,19 +6643,19 @@
       <c r="AJ44" s="10"/>
     </row>
     <row r="45" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="51">
+      <c r="B45" s="66">
         <f>MAX($B$5:B44)+1</f>
         <v>40</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
       <c r="L45" s="8"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -6684,19 +6683,19 @@
       <c r="AJ45" s="10"/>
     </row>
     <row r="46" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="51">
+      <c r="B46" s="66">
         <f>MAX($B$5:B45)+1</f>
         <v>41</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
       <c r="L46" s="8"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -6724,19 +6723,19 @@
       <c r="AJ46" s="10"/>
     </row>
     <row r="47" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="51">
+      <c r="B47" s="66">
         <f>MAX($B$5:B46)+1</f>
         <v>42</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
       <c r="L47" s="8"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -6764,19 +6763,19 @@
       <c r="AJ47" s="10"/>
     </row>
     <row r="48" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="51">
+      <c r="B48" s="66">
         <f>MAX($B$5:B47)+1</f>
         <v>43</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
       <c r="L48" s="8"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -6804,19 +6803,19 @@
       <c r="AJ48" s="10"/>
     </row>
     <row r="49" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="51">
+      <c r="B49" s="66">
         <f>MAX($B$5:B48)+1</f>
         <v>44</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
       <c r="L49" s="8"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -6844,19 +6843,19 @@
       <c r="AJ49" s="10"/>
     </row>
     <row r="50" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="51">
+      <c r="B50" s="66">
         <f>MAX($B$5:B49)+1</f>
         <v>45</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
       <c r="L50" s="8"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -6884,19 +6883,19 @@
       <c r="AJ50" s="10"/>
     </row>
     <row r="51" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="51">
+      <c r="B51" s="66">
         <f>MAX($B$5:B50)+1</f>
         <v>46</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
       <c r="L51" s="8"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -6924,19 +6923,19 @@
       <c r="AJ51" s="10"/>
     </row>
     <row r="52" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="51">
+      <c r="B52" s="66">
         <f>MAX($B$5:B51)+1</f>
         <v>47</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
       <c r="L52" s="8"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -6964,19 +6963,19 @@
       <c r="AJ52" s="10"/>
     </row>
     <row r="53" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="51">
+      <c r="B53" s="66">
         <f>MAX($B$5:B52)+1</f>
         <v>48</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
       <c r="L53" s="8"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -7004,19 +7003,19 @@
       <c r="AJ53" s="10"/>
     </row>
     <row r="54" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="51">
+      <c r="B54" s="66">
         <f>MAX($B$5:B53)+1</f>
         <v>49</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
       <c r="L54" s="8"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -7044,19 +7043,19 @@
       <c r="AJ54" s="10"/>
     </row>
     <row r="55" spans="2:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="51">
+      <c r="B55" s="66">
         <f>MAX($B$5:B54)+1</f>
         <v>50</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
       <c r="L55" s="8"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -7085,153 +7084,6 @@
     </row>
   </sheetData>
   <mergeCells count="159">
-    <mergeCell ref="B2:AJ3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="R5:AJ5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="R7:AJ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:K51"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="H55:K55"/>
@@ -7244,6 +7096,153 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
     <mergeCell ref="H54:K54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="R7:AJ7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="B2:AJ3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="R5:AJ5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -7275,170 +7274,170 @@
   <sheetData>
     <row r="1" spans="2:40" s="34" customFormat="1" ht="2.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="92"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="84"/>
     </row>
     <row r="3" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="96"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="89"/>
     </row>
     <row r="4" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="96"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="89"/>
     </row>
     <row r="5" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="99"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="100"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="100"/>
-      <c r="AN5" s="101"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="94"/>
     </row>
     <row r="6" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="30"/>
@@ -7481,7 +7480,7 @@
     <row r="7" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -7521,7 +7520,7 @@
     <row r="8" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -7561,7 +7560,7 @@
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -7610,7 +7609,7 @@
     <row r="11" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -7652,7 +7651,7 @@
     <row r="12" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4"/>
@@ -7691,7 +7690,7 @@
     <row r="13" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="35"/>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -7723,7 +7722,7 @@
     <row r="14" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="35"/>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN14" s="13"/>
     </row>
@@ -7734,7 +7733,7 @@
     <row r="16" spans="2:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -7775,7 +7774,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="14"/>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7816,7 +7815,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="14"/>
       <c r="E18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -7891,7 +7890,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="14"/>
       <c r="F20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -7929,7 +7928,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="14"/>
       <c r="G21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -8001,7 +8000,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="14"/>
       <c r="F23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -8039,7 +8038,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="14"/>
       <c r="G24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" s="4"/>
       <c r="M24" s="4"/>
@@ -8072,7 +8071,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="14"/>
       <c r="G25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -8109,7 +8108,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="14"/>
       <c r="G26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="4"/>
       <c r="J26" s="4"/>
@@ -8146,7 +8145,7 @@
       <c r="B27" s="35"/>
       <c r="C27" s="4"/>
       <c r="G27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
@@ -8167,7 +8166,7 @@
       <c r="B29" s="35"/>
       <c r="C29" s="4"/>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -8207,7 +8206,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="35"/>
       <c r="F30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -8232,14 +8231,14 @@
       <c r="AB30" s="12"/>
       <c r="AN30" s="13"/>
       <c r="BD30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="35"/>
       <c r="F31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN31" s="13"/>
     </row>
@@ -8247,7 +8246,7 @@
       <c r="A32" s="1"/>
       <c r="B32" s="35"/>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN32" s="13"/>
     </row>
@@ -8260,7 +8259,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="35"/>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN34" s="13"/>
     </row>
@@ -8268,7 +8267,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="14"/>
       <c r="F35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AN35" s="13"/>
     </row>
@@ -8276,7 +8275,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="14"/>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN36" s="13"/>
     </row>
@@ -8284,7 +8283,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="14"/>
       <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AN37" s="13"/>
     </row>
@@ -8297,7 +8296,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="35"/>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN39" s="13"/>
     </row>
@@ -8305,7 +8304,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="F40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN40" s="13"/>
     </row>
@@ -8313,7 +8312,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="35"/>
       <c r="F41" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN41" s="13"/>
     </row>
@@ -8326,7 +8325,7 @@
       <c r="A43" s="1"/>
       <c r="B43" s="35"/>
       <c r="D43" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="32"/>
       <c r="AN43" s="13"/>
@@ -8336,7 +8335,7 @@
       <c r="B44" s="26"/>
       <c r="D44" s="32"/>
       <c r="F44" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN44" s="13"/>
       <c r="AQ44" s="4"/>
@@ -8378,7 +8377,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="25"/>
       <c r="C46" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2"/>
       <c r="G46" s="23"/>
@@ -8422,7 +8421,7 @@
       <c r="B47" s="25"/>
       <c r="C47" s="4"/>
       <c r="D47" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
@@ -9061,7 +9060,7 @@
       <c r="B71" s="14"/>
       <c r="C71" s="4"/>
       <c r="D71" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ71" s="31"/>
       <c r="AK71" s="31"/>
@@ -9074,7 +9073,7 @@
       <c r="B72" s="14"/>
       <c r="C72" s="4"/>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ72" s="31"/>
       <c r="AK72" s="31"/>
@@ -9096,7 +9095,7 @@
       <c r="A74" s="1"/>
       <c r="B74" s="14"/>
       <c r="D74" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK74" s="31"/>
       <c r="AL74" s="31"/>
@@ -9107,7 +9106,7 @@
       <c r="A75" s="1"/>
       <c r="B75" s="14"/>
       <c r="E75" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK75" s="31"/>
       <c r="AL75" s="31"/>
@@ -9118,7 +9117,7 @@
       <c r="A76" s="1"/>
       <c r="B76" s="14"/>
       <c r="E76" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK76" s="31"/>
       <c r="AL76" s="31"/>
@@ -9129,7 +9128,7 @@
       <c r="A77" s="1"/>
       <c r="B77" s="14"/>
       <c r="D77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK77" s="31"/>
       <c r="AL77" s="31"/>
@@ -9141,7 +9140,7 @@
       <c r="B78" s="14"/>
       <c r="C78" s="4"/>
       <c r="E78" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ78" s="31"/>
       <c r="AK78" s="31"/>
@@ -9160,7 +9159,7 @@
       <c r="A80" s="4"/>
       <c r="B80" s="14"/>
       <c r="D80" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AN80" s="13"/>
     </row>
@@ -9168,7 +9167,7 @@
       <c r="A81" s="4"/>
       <c r="B81" s="14"/>
       <c r="E81" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN81" s="13"/>
     </row>
@@ -9181,7 +9180,7 @@
       <c r="A83" s="4"/>
       <c r="B83" s="35"/>
       <c r="C83" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN83" s="13"/>
     </row>
@@ -9189,7 +9188,7 @@
       <c r="A84" s="4"/>
       <c r="B84" s="35"/>
       <c r="D84" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI84" s="31"/>
       <c r="AN84" s="13"/>
@@ -9210,7 +9209,7 @@
       <c r="A87" s="4"/>
       <c r="B87" s="35"/>
       <c r="C87" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN87" s="13"/>
     </row>
@@ -9218,7 +9217,7 @@
       <c r="A88" s="4"/>
       <c r="B88" s="35"/>
       <c r="D88" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN88" s="13"/>
     </row>
@@ -9226,7 +9225,7 @@
       <c r="A89" s="4"/>
       <c r="B89" s="35"/>
       <c r="D89" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN89" s="13"/>
     </row>
@@ -9240,7 +9239,7 @@
       <c r="A91" s="4"/>
       <c r="B91" s="35"/>
       <c r="C91" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI91" s="12"/>
       <c r="AN91" s="13"/>
@@ -9249,7 +9248,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="35"/>
       <c r="D92" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI92" s="12"/>
       <c r="AN92" s="13"/>
@@ -9268,7 +9267,7 @@
       <c r="A95" s="1"/>
       <c r="B95" s="35"/>
       <c r="C95" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN95" s="13"/>
     </row>
@@ -9276,7 +9275,7 @@
       <c r="A96" s="1"/>
       <c r="B96" s="35"/>
       <c r="D96" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN96" s="13"/>
     </row>
@@ -9335,33 +9334,33 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="85"/>
-      <c r="H102" s="85"/>
-      <c r="I102" s="85"/>
-      <c r="J102" s="85"/>
-      <c r="K102" s="85"/>
-      <c r="L102" s="85"/>
-      <c r="M102" s="85"/>
-      <c r="N102" s="85"/>
-      <c r="O102" s="85"/>
-      <c r="P102" s="85"/>
-      <c r="Q102" s="85"/>
-      <c r="R102" s="85"/>
-      <c r="S102" s="85"/>
-      <c r="T102" s="85"/>
-      <c r="U102" s="85"/>
-      <c r="V102" s="85"/>
-      <c r="W102" s="85"/>
-      <c r="X102" s="85"/>
-      <c r="Y102" s="85"/>
-      <c r="Z102" s="85"/>
-      <c r="AA102" s="85"/>
-      <c r="AB102" s="85"/>
-      <c r="AC102" s="85"/>
-      <c r="AD102" s="85"/>
-      <c r="AE102" s="85"/>
-      <c r="AF102" s="85"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="79"/>
+      <c r="J102" s="79"/>
+      <c r="K102" s="79"/>
+      <c r="L102" s="79"/>
+      <c r="M102" s="79"/>
+      <c r="N102" s="79"/>
+      <c r="O102" s="79"/>
+      <c r="P102" s="79"/>
+      <c r="Q102" s="79"/>
+      <c r="R102" s="79"/>
+      <c r="S102" s="79"/>
+      <c r="T102" s="79"/>
+      <c r="U102" s="79"/>
+      <c r="V102" s="79"/>
+      <c r="W102" s="79"/>
+      <c r="X102" s="79"/>
+      <c r="Y102" s="79"/>
+      <c r="Z102" s="79"/>
+      <c r="AA102" s="79"/>
+      <c r="AB102" s="79"/>
+      <c r="AC102" s="79"/>
+      <c r="AD102" s="79"/>
+      <c r="AE102" s="79"/>
+      <c r="AF102" s="79"/>
       <c r="AG102" s="4"/>
       <c r="AH102" s="4"/>
       <c r="AI102" s="4"/>
@@ -9371,33 +9370,33 @@
       <c r="A103" s="1"/>
       <c r="B103" s="14"/>
       <c r="C103" s="4"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="87"/>
-      <c r="L103" s="87"/>
-      <c r="M103" s="87"/>
-      <c r="N103" s="87"/>
-      <c r="O103" s="87"/>
-      <c r="P103" s="87"/>
-      <c r="Q103" s="87"/>
-      <c r="R103" s="87"/>
-      <c r="S103" s="87"/>
-      <c r="T103" s="87"/>
-      <c r="U103" s="87"/>
-      <c r="V103" s="87"/>
-      <c r="W103" s="87"/>
-      <c r="X103" s="87"/>
-      <c r="Y103" s="87"/>
-      <c r="Z103" s="87"/>
-      <c r="AA103" s="87"/>
-      <c r="AB103" s="87"/>
-      <c r="AC103" s="87"/>
-      <c r="AD103" s="87"/>
-      <c r="AE103" s="87"/>
-      <c r="AF103" s="87"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="H103" s="79"/>
+      <c r="I103" s="79"/>
+      <c r="J103" s="79"/>
+      <c r="K103" s="95"/>
+      <c r="L103" s="95"/>
+      <c r="M103" s="95"/>
+      <c r="N103" s="95"/>
+      <c r="O103" s="95"/>
+      <c r="P103" s="95"/>
+      <c r="Q103" s="95"/>
+      <c r="R103" s="95"/>
+      <c r="S103" s="95"/>
+      <c r="T103" s="95"/>
+      <c r="U103" s="95"/>
+      <c r="V103" s="95"/>
+      <c r="W103" s="95"/>
+      <c r="X103" s="95"/>
+      <c r="Y103" s="95"/>
+      <c r="Z103" s="95"/>
+      <c r="AA103" s="95"/>
+      <c r="AB103" s="95"/>
+      <c r="AC103" s="95"/>
+      <c r="AD103" s="95"/>
+      <c r="AE103" s="95"/>
+      <c r="AF103" s="95"/>
       <c r="AG103" s="4"/>
       <c r="AH103" s="4"/>
       <c r="AI103" s="31"/>
@@ -9407,33 +9406,33 @@
       <c r="A104" s="1"/>
       <c r="B104" s="14"/>
       <c r="C104" s="4"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="H104" s="85"/>
-      <c r="I104" s="85"/>
-      <c r="J104" s="85"/>
-      <c r="K104" s="87"/>
-      <c r="L104" s="87"/>
-      <c r="M104" s="87"/>
-      <c r="N104" s="87"/>
-      <c r="O104" s="87"/>
-      <c r="P104" s="87"/>
-      <c r="Q104" s="87"/>
-      <c r="R104" s="87"/>
-      <c r="S104" s="87"/>
-      <c r="T104" s="87"/>
-      <c r="U104" s="87"/>
-      <c r="V104" s="87"/>
-      <c r="W104" s="87"/>
-      <c r="X104" s="87"/>
-      <c r="Y104" s="87"/>
-      <c r="Z104" s="87"/>
-      <c r="AA104" s="87"/>
-      <c r="AB104" s="87"/>
-      <c r="AC104" s="87"/>
-      <c r="AD104" s="87"/>
-      <c r="AE104" s="87"/>
-      <c r="AF104" s="87"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="79"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="95"/>
+      <c r="L104" s="95"/>
+      <c r="M104" s="95"/>
+      <c r="N104" s="95"/>
+      <c r="O104" s="95"/>
+      <c r="P104" s="95"/>
+      <c r="Q104" s="95"/>
+      <c r="R104" s="95"/>
+      <c r="S104" s="95"/>
+      <c r="T104" s="95"/>
+      <c r="U104" s="95"/>
+      <c r="V104" s="95"/>
+      <c r="W104" s="95"/>
+      <c r="X104" s="95"/>
+      <c r="Y104" s="95"/>
+      <c r="Z104" s="95"/>
+      <c r="AA104" s="95"/>
+      <c r="AB104" s="95"/>
+      <c r="AC104" s="95"/>
+      <c r="AD104" s="95"/>
+      <c r="AE104" s="95"/>
+      <c r="AF104" s="95"/>
       <c r="AG104" s="4"/>
       <c r="AH104" s="4"/>
       <c r="AI104" s="31"/>
@@ -9443,33 +9442,33 @@
       <c r="A105" s="1"/>
       <c r="B105" s="14"/>
       <c r="C105" s="4"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="85"/>
-      <c r="I105" s="85"/>
-      <c r="J105" s="85"/>
-      <c r="K105" s="87"/>
-      <c r="L105" s="87"/>
-      <c r="M105" s="87"/>
-      <c r="N105" s="87"/>
-      <c r="O105" s="87"/>
-      <c r="P105" s="87"/>
-      <c r="Q105" s="87"/>
-      <c r="R105" s="87"/>
-      <c r="S105" s="87"/>
-      <c r="T105" s="87"/>
-      <c r="U105" s="87"/>
-      <c r="V105" s="87"/>
-      <c r="W105" s="87"/>
-      <c r="X105" s="87"/>
-      <c r="Y105" s="87"/>
-      <c r="Z105" s="87"/>
-      <c r="AA105" s="87"/>
-      <c r="AB105" s="87"/>
-      <c r="AC105" s="87"/>
-      <c r="AD105" s="87"/>
-      <c r="AE105" s="87"/>
-      <c r="AF105" s="87"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="79"/>
+      <c r="J105" s="79"/>
+      <c r="K105" s="95"/>
+      <c r="L105" s="95"/>
+      <c r="M105" s="95"/>
+      <c r="N105" s="95"/>
+      <c r="O105" s="95"/>
+      <c r="P105" s="95"/>
+      <c r="Q105" s="95"/>
+      <c r="R105" s="95"/>
+      <c r="S105" s="95"/>
+      <c r="T105" s="95"/>
+      <c r="U105" s="95"/>
+      <c r="V105" s="95"/>
+      <c r="W105" s="95"/>
+      <c r="X105" s="95"/>
+      <c r="Y105" s="95"/>
+      <c r="Z105" s="95"/>
+      <c r="AA105" s="95"/>
+      <c r="AB105" s="95"/>
+      <c r="AC105" s="95"/>
+      <c r="AD105" s="95"/>
+      <c r="AE105" s="95"/>
+      <c r="AF105" s="95"/>
       <c r="AG105" s="4"/>
       <c r="AH105" s="4"/>
       <c r="AI105" s="31"/>
@@ -9479,33 +9478,33 @@
       <c r="A106" s="1"/>
       <c r="B106" s="14"/>
       <c r="C106" s="4"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-      <c r="K106" s="87"/>
-      <c r="L106" s="87"/>
-      <c r="M106" s="87"/>
-      <c r="N106" s="87"/>
-      <c r="O106" s="87"/>
-      <c r="P106" s="87"/>
-      <c r="Q106" s="87"/>
-      <c r="R106" s="87"/>
-      <c r="S106" s="87"/>
-      <c r="T106" s="87"/>
-      <c r="U106" s="87"/>
-      <c r="V106" s="87"/>
-      <c r="W106" s="87"/>
-      <c r="X106" s="87"/>
-      <c r="Y106" s="87"/>
-      <c r="Z106" s="87"/>
-      <c r="AA106" s="87"/>
-      <c r="AB106" s="87"/>
-      <c r="AC106" s="87"/>
-      <c r="AD106" s="87"/>
-      <c r="AE106" s="87"/>
-      <c r="AF106" s="87"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="79"/>
+      <c r="K106" s="95"/>
+      <c r="L106" s="95"/>
+      <c r="M106" s="95"/>
+      <c r="N106" s="95"/>
+      <c r="O106" s="95"/>
+      <c r="P106" s="95"/>
+      <c r="Q106" s="95"/>
+      <c r="R106" s="95"/>
+      <c r="S106" s="95"/>
+      <c r="T106" s="95"/>
+      <c r="U106" s="95"/>
+      <c r="V106" s="95"/>
+      <c r="W106" s="95"/>
+      <c r="X106" s="95"/>
+      <c r="Y106" s="95"/>
+      <c r="Z106" s="95"/>
+      <c r="AA106" s="95"/>
+      <c r="AB106" s="95"/>
+      <c r="AC106" s="95"/>
+      <c r="AD106" s="95"/>
+      <c r="AE106" s="95"/>
+      <c r="AF106" s="95"/>
       <c r="AG106" s="4"/>
       <c r="AH106" s="4"/>
       <c r="AI106" s="31"/>
@@ -9515,33 +9514,33 @@
       <c r="A107" s="1"/>
       <c r="B107" s="14"/>
       <c r="C107" s="4"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="85"/>
-      <c r="I107" s="85"/>
-      <c r="J107" s="85"/>
-      <c r="K107" s="87"/>
-      <c r="L107" s="87"/>
-      <c r="M107" s="87"/>
-      <c r="N107" s="87"/>
-      <c r="O107" s="87"/>
-      <c r="P107" s="87"/>
-      <c r="Q107" s="87"/>
-      <c r="R107" s="87"/>
-      <c r="S107" s="87"/>
-      <c r="T107" s="87"/>
-      <c r="U107" s="87"/>
-      <c r="V107" s="87"/>
-      <c r="W107" s="87"/>
-      <c r="X107" s="87"/>
-      <c r="Y107" s="87"/>
-      <c r="Z107" s="87"/>
-      <c r="AA107" s="87"/>
-      <c r="AB107" s="87"/>
-      <c r="AC107" s="87"/>
-      <c r="AD107" s="87"/>
-      <c r="AE107" s="87"/>
-      <c r="AF107" s="87"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="79"/>
+      <c r="K107" s="95"/>
+      <c r="L107" s="95"/>
+      <c r="M107" s="95"/>
+      <c r="N107" s="95"/>
+      <c r="O107" s="95"/>
+      <c r="P107" s="95"/>
+      <c r="Q107" s="95"/>
+      <c r="R107" s="95"/>
+      <c r="S107" s="95"/>
+      <c r="T107" s="95"/>
+      <c r="U107" s="95"/>
+      <c r="V107" s="95"/>
+      <c r="W107" s="95"/>
+      <c r="X107" s="95"/>
+      <c r="Y107" s="95"/>
+      <c r="Z107" s="95"/>
+      <c r="AA107" s="95"/>
+      <c r="AB107" s="95"/>
+      <c r="AC107" s="95"/>
+      <c r="AD107" s="95"/>
+      <c r="AE107" s="95"/>
+      <c r="AF107" s="95"/>
       <c r="AG107" s="4"/>
       <c r="AH107" s="4"/>
       <c r="AI107" s="31"/>
@@ -9551,33 +9550,33 @@
       <c r="A108" s="1"/>
       <c r="B108" s="14"/>
       <c r="C108" s="4"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="85"/>
-      <c r="K108" s="87"/>
-      <c r="L108" s="87"/>
-      <c r="M108" s="87"/>
-      <c r="N108" s="87"/>
-      <c r="O108" s="87"/>
-      <c r="P108" s="87"/>
-      <c r="Q108" s="87"/>
-      <c r="R108" s="87"/>
-      <c r="S108" s="87"/>
-      <c r="T108" s="87"/>
-      <c r="U108" s="87"/>
-      <c r="V108" s="87"/>
-      <c r="W108" s="87"/>
-      <c r="X108" s="87"/>
-      <c r="Y108" s="87"/>
-      <c r="Z108" s="87"/>
-      <c r="AA108" s="87"/>
-      <c r="AB108" s="87"/>
-      <c r="AC108" s="87"/>
-      <c r="AD108" s="87"/>
-      <c r="AE108" s="87"/>
-      <c r="AF108" s="87"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="79"/>
+      <c r="H108" s="79"/>
+      <c r="I108" s="79"/>
+      <c r="J108" s="79"/>
+      <c r="K108" s="95"/>
+      <c r="L108" s="95"/>
+      <c r="M108" s="95"/>
+      <c r="N108" s="95"/>
+      <c r="O108" s="95"/>
+      <c r="P108" s="95"/>
+      <c r="Q108" s="95"/>
+      <c r="R108" s="95"/>
+      <c r="S108" s="95"/>
+      <c r="T108" s="95"/>
+      <c r="U108" s="95"/>
+      <c r="V108" s="95"/>
+      <c r="W108" s="95"/>
+      <c r="X108" s="95"/>
+      <c r="Y108" s="95"/>
+      <c r="Z108" s="95"/>
+      <c r="AA108" s="95"/>
+      <c r="AB108" s="95"/>
+      <c r="AC108" s="95"/>
+      <c r="AD108" s="95"/>
+      <c r="AE108" s="95"/>
+      <c r="AF108" s="95"/>
       <c r="AG108" s="4"/>
       <c r="AH108" s="4"/>
       <c r="AI108" s="31"/>
@@ -9587,33 +9586,33 @@
       <c r="A109" s="1"/>
       <c r="B109" s="14"/>
       <c r="C109" s="4"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="85"/>
-      <c r="I109" s="85"/>
-      <c r="J109" s="85"/>
-      <c r="K109" s="86"/>
-      <c r="L109" s="86"/>
-      <c r="M109" s="86"/>
-      <c r="N109" s="86"/>
-      <c r="O109" s="86"/>
-      <c r="P109" s="86"/>
-      <c r="Q109" s="86"/>
-      <c r="R109" s="86"/>
-      <c r="S109" s="86"/>
-      <c r="T109" s="86"/>
-      <c r="U109" s="86"/>
-      <c r="V109" s="86"/>
-      <c r="W109" s="86"/>
-      <c r="X109" s="86"/>
-      <c r="Y109" s="86"/>
-      <c r="Z109" s="86"/>
-      <c r="AA109" s="86"/>
-      <c r="AB109" s="86"/>
-      <c r="AC109" s="86"/>
-      <c r="AD109" s="86"/>
-      <c r="AE109" s="86"/>
-      <c r="AF109" s="86"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="79"/>
+      <c r="J109" s="79"/>
+      <c r="K109" s="96"/>
+      <c r="L109" s="96"/>
+      <c r="M109" s="96"/>
+      <c r="N109" s="96"/>
+      <c r="O109" s="96"/>
+      <c r="P109" s="96"/>
+      <c r="Q109" s="96"/>
+      <c r="R109" s="96"/>
+      <c r="S109" s="96"/>
+      <c r="T109" s="96"/>
+      <c r="U109" s="96"/>
+      <c r="V109" s="96"/>
+      <c r="W109" s="96"/>
+      <c r="X109" s="96"/>
+      <c r="Y109" s="96"/>
+      <c r="Z109" s="96"/>
+      <c r="AA109" s="96"/>
+      <c r="AB109" s="96"/>
+      <c r="AC109" s="96"/>
+      <c r="AD109" s="96"/>
+      <c r="AE109" s="96"/>
+      <c r="AF109" s="96"/>
       <c r="AG109" s="4"/>
       <c r="AH109" s="4"/>
       <c r="AI109" s="31"/>
@@ -9623,33 +9622,33 @@
       <c r="A110" s="1"/>
       <c r="B110" s="14"/>
       <c r="C110" s="4"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="85"/>
-      <c r="I110" s="85"/>
-      <c r="J110" s="85"/>
-      <c r="K110" s="87"/>
-      <c r="L110" s="87"/>
-      <c r="M110" s="87"/>
-      <c r="N110" s="87"/>
-      <c r="O110" s="87"/>
-      <c r="P110" s="87"/>
-      <c r="Q110" s="87"/>
-      <c r="R110" s="87"/>
-      <c r="S110" s="87"/>
-      <c r="T110" s="87"/>
-      <c r="U110" s="87"/>
-      <c r="V110" s="87"/>
-      <c r="W110" s="87"/>
-      <c r="X110" s="87"/>
-      <c r="Y110" s="87"/>
-      <c r="Z110" s="87"/>
-      <c r="AA110" s="87"/>
-      <c r="AB110" s="87"/>
-      <c r="AC110" s="87"/>
-      <c r="AD110" s="87"/>
-      <c r="AE110" s="87"/>
-      <c r="AF110" s="87"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="79"/>
+      <c r="I110" s="79"/>
+      <c r="J110" s="79"/>
+      <c r="K110" s="95"/>
+      <c r="L110" s="95"/>
+      <c r="M110" s="95"/>
+      <c r="N110" s="95"/>
+      <c r="O110" s="95"/>
+      <c r="P110" s="95"/>
+      <c r="Q110" s="95"/>
+      <c r="R110" s="95"/>
+      <c r="S110" s="95"/>
+      <c r="T110" s="95"/>
+      <c r="U110" s="95"/>
+      <c r="V110" s="95"/>
+      <c r="W110" s="95"/>
+      <c r="X110" s="95"/>
+      <c r="Y110" s="95"/>
+      <c r="Z110" s="95"/>
+      <c r="AA110" s="95"/>
+      <c r="AB110" s="95"/>
+      <c r="AC110" s="95"/>
+      <c r="AD110" s="95"/>
+      <c r="AE110" s="95"/>
+      <c r="AF110" s="95"/>
       <c r="AG110" s="4"/>
       <c r="AH110" s="4"/>
       <c r="AI110" s="31"/>
@@ -9789,36 +9788,36 @@
       <c r="B116" s="14"/>
       <c r="C116" s="20"/>
       <c r="D116" s="22"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="80"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="79"/>
-      <c r="I116" s="79"/>
-      <c r="J116" s="79"/>
-      <c r="K116" s="79"/>
-      <c r="L116" s="79"/>
-      <c r="M116" s="79"/>
-      <c r="N116" s="79"/>
-      <c r="O116" s="79"/>
-      <c r="P116" s="79"/>
-      <c r="Q116" s="79"/>
-      <c r="R116" s="79"/>
-      <c r="S116" s="79"/>
-      <c r="T116" s="79"/>
-      <c r="U116" s="79"/>
-      <c r="V116" s="79"/>
-      <c r="W116" s="79"/>
-      <c r="X116" s="79"/>
+      <c r="E116" s="97"/>
+      <c r="F116" s="98"/>
+      <c r="G116" s="97"/>
+      <c r="H116" s="97"/>
+      <c r="I116" s="97"/>
+      <c r="J116" s="97"/>
+      <c r="K116" s="97"/>
+      <c r="L116" s="97"/>
+      <c r="M116" s="97"/>
+      <c r="N116" s="97"/>
+      <c r="O116" s="97"/>
+      <c r="P116" s="97"/>
+      <c r="Q116" s="97"/>
+      <c r="R116" s="97"/>
+      <c r="S116" s="97"/>
+      <c r="T116" s="97"/>
+      <c r="U116" s="97"/>
+      <c r="V116" s="97"/>
+      <c r="W116" s="97"/>
+      <c r="X116" s="97"/>
       <c r="Y116" s="20"/>
       <c r="Z116" s="20"/>
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
       <c r="AD116" s="4"/>
-      <c r="AE116" s="84"/>
-      <c r="AF116" s="84"/>
-      <c r="AG116" s="84"/>
-      <c r="AH116" s="84"/>
+      <c r="AE116" s="88"/>
+      <c r="AF116" s="88"/>
+      <c r="AG116" s="88"/>
+      <c r="AH116" s="88"/>
       <c r="AI116" s="4"/>
       <c r="AN116" s="13"/>
     </row>
@@ -9826,36 +9825,36 @@
       <c r="B117" s="14"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="80"/>
-      <c r="G117" s="79"/>
-      <c r="H117" s="79"/>
-      <c r="I117" s="79"/>
-      <c r="J117" s="79"/>
-      <c r="K117" s="79"/>
-      <c r="L117" s="79"/>
-      <c r="M117" s="79"/>
-      <c r="N117" s="79"/>
-      <c r="O117" s="79"/>
-      <c r="P117" s="79"/>
-      <c r="Q117" s="79"/>
-      <c r="R117" s="79"/>
-      <c r="S117" s="79"/>
-      <c r="T117" s="79"/>
-      <c r="U117" s="79"/>
-      <c r="V117" s="79"/>
-      <c r="W117" s="79"/>
-      <c r="X117" s="79"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="97"/>
+      <c r="H117" s="97"/>
+      <c r="I117" s="97"/>
+      <c r="J117" s="97"/>
+      <c r="K117" s="97"/>
+      <c r="L117" s="97"/>
+      <c r="M117" s="97"/>
+      <c r="N117" s="97"/>
+      <c r="O117" s="97"/>
+      <c r="P117" s="97"/>
+      <c r="Q117" s="97"/>
+      <c r="R117" s="97"/>
+      <c r="S117" s="97"/>
+      <c r="T117" s="97"/>
+      <c r="U117" s="97"/>
+      <c r="V117" s="97"/>
+      <c r="W117" s="97"/>
+      <c r="X117" s="97"/>
       <c r="Y117" s="20"/>
       <c r="Z117" s="20"/>
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
       <c r="AD117" s="4"/>
-      <c r="AE117" s="84"/>
-      <c r="AF117" s="84"/>
-      <c r="AG117" s="84"/>
-      <c r="AH117" s="84"/>
+      <c r="AE117" s="88"/>
+      <c r="AF117" s="88"/>
+      <c r="AG117" s="88"/>
+      <c r="AH117" s="88"/>
       <c r="AI117" s="4"/>
       <c r="AN117" s="13"/>
     </row>
@@ -9863,36 +9862,36 @@
       <c r="B118" s="14"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="80"/>
-      <c r="G118" s="79"/>
-      <c r="H118" s="79"/>
-      <c r="I118" s="79"/>
-      <c r="J118" s="79"/>
-      <c r="K118" s="79"/>
-      <c r="L118" s="79"/>
-      <c r="M118" s="79"/>
-      <c r="N118" s="79"/>
-      <c r="O118" s="79"/>
-      <c r="P118" s="79"/>
-      <c r="Q118" s="79"/>
-      <c r="R118" s="79"/>
-      <c r="S118" s="79"/>
-      <c r="T118" s="79"/>
-      <c r="U118" s="79"/>
-      <c r="V118" s="79"/>
-      <c r="W118" s="79"/>
-      <c r="X118" s="79"/>
+      <c r="E118" s="97"/>
+      <c r="F118" s="98"/>
+      <c r="G118" s="97"/>
+      <c r="H118" s="97"/>
+      <c r="I118" s="97"/>
+      <c r="J118" s="97"/>
+      <c r="K118" s="97"/>
+      <c r="L118" s="97"/>
+      <c r="M118" s="97"/>
+      <c r="N118" s="97"/>
+      <c r="O118" s="97"/>
+      <c r="P118" s="97"/>
+      <c r="Q118" s="97"/>
+      <c r="R118" s="97"/>
+      <c r="S118" s="97"/>
+      <c r="T118" s="97"/>
+      <c r="U118" s="97"/>
+      <c r="V118" s="97"/>
+      <c r="W118" s="97"/>
+      <c r="X118" s="97"/>
       <c r="Y118" s="20"/>
       <c r="Z118" s="20"/>
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
       <c r="AD118" s="4"/>
-      <c r="AE118" s="84"/>
-      <c r="AF118" s="84"/>
-      <c r="AG118" s="84"/>
-      <c r="AH118" s="84"/>
+      <c r="AE118" s="88"/>
+      <c r="AF118" s="88"/>
+      <c r="AG118" s="88"/>
+      <c r="AH118" s="88"/>
       <c r="AI118" s="4"/>
       <c r="AN118" s="13"/>
     </row>
@@ -9900,36 +9899,36 @@
       <c r="B119" s="14"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="80"/>
-      <c r="G119" s="79"/>
-      <c r="H119" s="79"/>
-      <c r="I119" s="79"/>
-      <c r="J119" s="79"/>
-      <c r="K119" s="79"/>
-      <c r="L119" s="79"/>
-      <c r="M119" s="79"/>
-      <c r="N119" s="79"/>
-      <c r="O119" s="79"/>
-      <c r="P119" s="79"/>
-      <c r="Q119" s="79"/>
-      <c r="R119" s="79"/>
-      <c r="S119" s="79"/>
-      <c r="T119" s="79"/>
-      <c r="U119" s="79"/>
-      <c r="V119" s="79"/>
-      <c r="W119" s="79"/>
-      <c r="X119" s="79"/>
+      <c r="E119" s="97"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="97"/>
+      <c r="H119" s="97"/>
+      <c r="I119" s="97"/>
+      <c r="J119" s="97"/>
+      <c r="K119" s="97"/>
+      <c r="L119" s="97"/>
+      <c r="M119" s="97"/>
+      <c r="N119" s="97"/>
+      <c r="O119" s="97"/>
+      <c r="P119" s="97"/>
+      <c r="Q119" s="97"/>
+      <c r="R119" s="97"/>
+      <c r="S119" s="97"/>
+      <c r="T119" s="97"/>
+      <c r="U119" s="97"/>
+      <c r="V119" s="97"/>
+      <c r="W119" s="97"/>
+      <c r="X119" s="97"/>
       <c r="Y119" s="20"/>
       <c r="Z119" s="20"/>
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
       <c r="AD119" s="4"/>
-      <c r="AE119" s="83"/>
-      <c r="AF119" s="83"/>
-      <c r="AG119" s="83"/>
-      <c r="AH119" s="83"/>
+      <c r="AE119" s="99"/>
+      <c r="AF119" s="99"/>
+      <c r="AG119" s="99"/>
+      <c r="AH119" s="99"/>
       <c r="AI119" s="4"/>
       <c r="AN119" s="13"/>
     </row>
@@ -9937,36 +9936,36 @@
       <c r="B120" s="14"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="80"/>
-      <c r="G120" s="79"/>
-      <c r="H120" s="79"/>
-      <c r="I120" s="79"/>
-      <c r="J120" s="79"/>
-      <c r="K120" s="79"/>
-      <c r="L120" s="79"/>
-      <c r="M120" s="79"/>
-      <c r="N120" s="79"/>
-      <c r="O120" s="79"/>
-      <c r="P120" s="79"/>
-      <c r="Q120" s="79"/>
-      <c r="R120" s="79"/>
-      <c r="S120" s="79"/>
-      <c r="T120" s="79"/>
-      <c r="U120" s="79"/>
-      <c r="V120" s="79"/>
-      <c r="W120" s="79"/>
-      <c r="X120" s="79"/>
+      <c r="E120" s="97"/>
+      <c r="F120" s="98"/>
+      <c r="G120" s="97"/>
+      <c r="H120" s="97"/>
+      <c r="I120" s="97"/>
+      <c r="J120" s="97"/>
+      <c r="K120" s="97"/>
+      <c r="L120" s="97"/>
+      <c r="M120" s="97"/>
+      <c r="N120" s="97"/>
+      <c r="O120" s="97"/>
+      <c r="P120" s="97"/>
+      <c r="Q120" s="97"/>
+      <c r="R120" s="97"/>
+      <c r="S120" s="97"/>
+      <c r="T120" s="97"/>
+      <c r="U120" s="97"/>
+      <c r="V120" s="97"/>
+      <c r="W120" s="97"/>
+      <c r="X120" s="97"/>
       <c r="Y120" s="20"/>
       <c r="Z120" s="20"/>
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
       <c r="AD120" s="4"/>
-      <c r="AE120" s="83"/>
-      <c r="AF120" s="83"/>
-      <c r="AG120" s="83"/>
-      <c r="AH120" s="83"/>
+      <c r="AE120" s="99"/>
+      <c r="AF120" s="99"/>
+      <c r="AG120" s="99"/>
+      <c r="AH120" s="99"/>
       <c r="AI120" s="4"/>
       <c r="AN120" s="13"/>
     </row>
@@ -9974,36 +9973,36 @@
       <c r="B121" s="14"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="80"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="79"/>
-      <c r="I121" s="79"/>
-      <c r="J121" s="79"/>
-      <c r="K121" s="79"/>
-      <c r="L121" s="79"/>
-      <c r="M121" s="79"/>
-      <c r="N121" s="79"/>
-      <c r="O121" s="79"/>
-      <c r="P121" s="79"/>
-      <c r="Q121" s="79"/>
-      <c r="R121" s="79"/>
-      <c r="S121" s="79"/>
-      <c r="T121" s="79"/>
-      <c r="U121" s="79"/>
-      <c r="V121" s="79"/>
-      <c r="W121" s="79"/>
-      <c r="X121" s="79"/>
+      <c r="E121" s="97"/>
+      <c r="F121" s="98"/>
+      <c r="G121" s="97"/>
+      <c r="H121" s="97"/>
+      <c r="I121" s="97"/>
+      <c r="J121" s="97"/>
+      <c r="K121" s="97"/>
+      <c r="L121" s="97"/>
+      <c r="M121" s="97"/>
+      <c r="N121" s="97"/>
+      <c r="O121" s="97"/>
+      <c r="P121" s="97"/>
+      <c r="Q121" s="97"/>
+      <c r="R121" s="97"/>
+      <c r="S121" s="97"/>
+      <c r="T121" s="97"/>
+      <c r="U121" s="97"/>
+      <c r="V121" s="97"/>
+      <c r="W121" s="97"/>
+      <c r="X121" s="97"/>
       <c r="Y121" s="20"/>
       <c r="Z121" s="20"/>
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
       <c r="AD121" s="4"/>
-      <c r="AE121" s="83"/>
-      <c r="AF121" s="83"/>
-      <c r="AG121" s="83"/>
-      <c r="AH121" s="83"/>
+      <c r="AE121" s="99"/>
+      <c r="AF121" s="99"/>
+      <c r="AG121" s="99"/>
+      <c r="AH121" s="99"/>
       <c r="AI121" s="4"/>
       <c r="AN121" s="13"/>
       <c r="AY121" s="4"/>
@@ -10030,36 +10029,36 @@
       <c r="B122" s="14"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="79"/>
-      <c r="I122" s="79"/>
-      <c r="J122" s="79"/>
-      <c r="K122" s="79"/>
-      <c r="L122" s="79"/>
-      <c r="M122" s="79"/>
-      <c r="N122" s="79"/>
-      <c r="O122" s="79"/>
-      <c r="P122" s="79"/>
-      <c r="Q122" s="79"/>
-      <c r="R122" s="79"/>
-      <c r="S122" s="79"/>
-      <c r="T122" s="79"/>
-      <c r="U122" s="79"/>
-      <c r="V122" s="79"/>
-      <c r="W122" s="79"/>
-      <c r="X122" s="79"/>
+      <c r="E122" s="97"/>
+      <c r="F122" s="98"/>
+      <c r="G122" s="97"/>
+      <c r="H122" s="97"/>
+      <c r="I122" s="97"/>
+      <c r="J122" s="97"/>
+      <c r="K122" s="97"/>
+      <c r="L122" s="97"/>
+      <c r="M122" s="97"/>
+      <c r="N122" s="97"/>
+      <c r="O122" s="97"/>
+      <c r="P122" s="97"/>
+      <c r="Q122" s="97"/>
+      <c r="R122" s="97"/>
+      <c r="S122" s="97"/>
+      <c r="T122" s="97"/>
+      <c r="U122" s="97"/>
+      <c r="V122" s="97"/>
+      <c r="W122" s="97"/>
+      <c r="X122" s="97"/>
       <c r="Y122" s="20"/>
       <c r="Z122" s="20"/>
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
       <c r="AD122" s="4"/>
-      <c r="AE122" s="84"/>
-      <c r="AF122" s="84"/>
-      <c r="AG122" s="84"/>
-      <c r="AH122" s="84"/>
+      <c r="AE122" s="88"/>
+      <c r="AF122" s="88"/>
+      <c r="AG122" s="88"/>
+      <c r="AH122" s="88"/>
       <c r="AI122" s="4"/>
       <c r="AN122" s="13"/>
       <c r="AY122" s="4"/>
@@ -10086,36 +10085,36 @@
       <c r="B123" s="14"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="79"/>
-      <c r="I123" s="79"/>
-      <c r="J123" s="79"/>
-      <c r="K123" s="79"/>
-      <c r="L123" s="79"/>
-      <c r="M123" s="79"/>
-      <c r="N123" s="79"/>
-      <c r="O123" s="79"/>
-      <c r="P123" s="79"/>
-      <c r="Q123" s="79"/>
-      <c r="R123" s="79"/>
-      <c r="S123" s="79"/>
-      <c r="T123" s="79"/>
-      <c r="U123" s="79"/>
-      <c r="V123" s="79"/>
-      <c r="W123" s="79"/>
-      <c r="X123" s="79"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="98"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="97"/>
+      <c r="J123" s="97"/>
+      <c r="K123" s="97"/>
+      <c r="L123" s="97"/>
+      <c r="M123" s="97"/>
+      <c r="N123" s="97"/>
+      <c r="O123" s="97"/>
+      <c r="P123" s="97"/>
+      <c r="Q123" s="97"/>
+      <c r="R123" s="97"/>
+      <c r="S123" s="97"/>
+      <c r="T123" s="97"/>
+      <c r="U123" s="97"/>
+      <c r="V123" s="97"/>
+      <c r="W123" s="97"/>
+      <c r="X123" s="97"/>
       <c r="Y123" s="20"/>
       <c r="Z123" s="20"/>
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
       <c r="AD123" s="4"/>
-      <c r="AE123" s="84"/>
-      <c r="AF123" s="84"/>
-      <c r="AG123" s="84"/>
-      <c r="AH123" s="84"/>
+      <c r="AE123" s="88"/>
+      <c r="AF123" s="88"/>
+      <c r="AG123" s="88"/>
+      <c r="AH123" s="88"/>
       <c r="AI123" s="4"/>
       <c r="AN123" s="13"/>
       <c r="AY123" s="4"/>
@@ -10142,36 +10141,36 @@
       <c r="B124" s="14"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="80"/>
-      <c r="G124" s="79"/>
-      <c r="H124" s="79"/>
-      <c r="I124" s="79"/>
-      <c r="J124" s="79"/>
-      <c r="K124" s="79"/>
-      <c r="L124" s="79"/>
-      <c r="M124" s="79"/>
-      <c r="N124" s="79"/>
-      <c r="O124" s="79"/>
-      <c r="P124" s="79"/>
-      <c r="Q124" s="79"/>
-      <c r="R124" s="79"/>
-      <c r="S124" s="79"/>
-      <c r="T124" s="79"/>
-      <c r="U124" s="79"/>
-      <c r="V124" s="79"/>
-      <c r="W124" s="79"/>
-      <c r="X124" s="79"/>
+      <c r="E124" s="97"/>
+      <c r="F124" s="98"/>
+      <c r="G124" s="97"/>
+      <c r="H124" s="97"/>
+      <c r="I124" s="97"/>
+      <c r="J124" s="97"/>
+      <c r="K124" s="97"/>
+      <c r="L124" s="97"/>
+      <c r="M124" s="97"/>
+      <c r="N124" s="97"/>
+      <c r="O124" s="97"/>
+      <c r="P124" s="97"/>
+      <c r="Q124" s="97"/>
+      <c r="R124" s="97"/>
+      <c r="S124" s="97"/>
+      <c r="T124" s="97"/>
+      <c r="U124" s="97"/>
+      <c r="V124" s="97"/>
+      <c r="W124" s="97"/>
+      <c r="X124" s="97"/>
       <c r="Y124" s="20"/>
       <c r="Z124" s="20"/>
       <c r="AA124" s="4"/>
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
       <c r="AD124" s="4"/>
-      <c r="AE124" s="84"/>
-      <c r="AF124" s="84"/>
-      <c r="AG124" s="84"/>
-      <c r="AH124" s="84"/>
+      <c r="AE124" s="88"/>
+      <c r="AF124" s="88"/>
+      <c r="AG124" s="88"/>
+      <c r="AH124" s="88"/>
       <c r="AI124" s="4"/>
       <c r="AN124" s="13"/>
     </row>
@@ -10179,36 +10178,36 @@
       <c r="B125" s="14"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
-      <c r="E125" s="79"/>
-      <c r="F125" s="80"/>
-      <c r="G125" s="79"/>
-      <c r="H125" s="79"/>
-      <c r="I125" s="79"/>
-      <c r="J125" s="79"/>
-      <c r="K125" s="79"/>
-      <c r="L125" s="79"/>
-      <c r="M125" s="79"/>
-      <c r="N125" s="79"/>
-      <c r="O125" s="79"/>
-      <c r="P125" s="79"/>
-      <c r="Q125" s="79"/>
-      <c r="R125" s="79"/>
-      <c r="S125" s="79"/>
-      <c r="T125" s="79"/>
-      <c r="U125" s="79"/>
-      <c r="V125" s="79"/>
-      <c r="W125" s="79"/>
-      <c r="X125" s="79"/>
+      <c r="E125" s="97"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="97"/>
+      <c r="H125" s="97"/>
+      <c r="I125" s="97"/>
+      <c r="J125" s="97"/>
+      <c r="K125" s="97"/>
+      <c r="L125" s="97"/>
+      <c r="M125" s="97"/>
+      <c r="N125" s="97"/>
+      <c r="O125" s="97"/>
+      <c r="P125" s="97"/>
+      <c r="Q125" s="97"/>
+      <c r="R125" s="97"/>
+      <c r="S125" s="97"/>
+      <c r="T125" s="97"/>
+      <c r="U125" s="97"/>
+      <c r="V125" s="97"/>
+      <c r="W125" s="97"/>
+      <c r="X125" s="97"/>
       <c r="Y125" s="20"/>
       <c r="Z125" s="20"/>
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
       <c r="AD125" s="4"/>
-      <c r="AE125" s="84"/>
-      <c r="AF125" s="84"/>
-      <c r="AG125" s="84"/>
-      <c r="AH125" s="84"/>
+      <c r="AE125" s="88"/>
+      <c r="AF125" s="88"/>
+      <c r="AG125" s="88"/>
+      <c r="AH125" s="88"/>
       <c r="AI125" s="4"/>
       <c r="AN125" s="13"/>
     </row>
@@ -10216,26 +10215,26 @@
       <c r="B126" s="14"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="80"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="79"/>
-      <c r="I126" s="79"/>
-      <c r="J126" s="79"/>
-      <c r="K126" s="79"/>
-      <c r="L126" s="79"/>
-      <c r="M126" s="79"/>
-      <c r="N126" s="79"/>
-      <c r="O126" s="79"/>
-      <c r="P126" s="79"/>
-      <c r="Q126" s="79"/>
-      <c r="R126" s="79"/>
-      <c r="S126" s="79"/>
-      <c r="T126" s="79"/>
-      <c r="U126" s="79"/>
-      <c r="V126" s="79"/>
-      <c r="W126" s="79"/>
-      <c r="X126" s="79"/>
+      <c r="E126" s="97"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="97"/>
+      <c r="H126" s="97"/>
+      <c r="I126" s="97"/>
+      <c r="J126" s="97"/>
+      <c r="K126" s="97"/>
+      <c r="L126" s="97"/>
+      <c r="M126" s="97"/>
+      <c r="N126" s="97"/>
+      <c r="O126" s="97"/>
+      <c r="P126" s="97"/>
+      <c r="Q126" s="97"/>
+      <c r="R126" s="97"/>
+      <c r="S126" s="97"/>
+      <c r="T126" s="97"/>
+      <c r="U126" s="97"/>
+      <c r="V126" s="97"/>
+      <c r="W126" s="97"/>
+      <c r="X126" s="97"/>
       <c r="Y126" s="20"/>
       <c r="Z126" s="20"/>
       <c r="AA126" s="4"/>
@@ -10290,24 +10289,24 @@
       <c r="B128" s="14"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
-      <c r="E128" s="81"/>
-      <c r="F128" s="82"/>
-      <c r="G128" s="82"/>
-      <c r="H128" s="82"/>
-      <c r="I128" s="82"/>
-      <c r="J128" s="82"/>
-      <c r="K128" s="82"/>
-      <c r="L128" s="82"/>
-      <c r="M128" s="82"/>
-      <c r="N128" s="82"/>
-      <c r="O128" s="82"/>
-      <c r="P128" s="82"/>
-      <c r="Q128" s="82"/>
-      <c r="R128" s="82"/>
-      <c r="S128" s="82"/>
-      <c r="T128" s="82"/>
-      <c r="U128" s="82"/>
-      <c r="V128" s="82"/>
+      <c r="E128" s="100"/>
+      <c r="F128" s="101"/>
+      <c r="G128" s="101"/>
+      <c r="H128" s="101"/>
+      <c r="I128" s="101"/>
+      <c r="J128" s="101"/>
+      <c r="K128" s="101"/>
+      <c r="L128" s="101"/>
+      <c r="M128" s="101"/>
+      <c r="N128" s="101"/>
+      <c r="O128" s="101"/>
+      <c r="P128" s="101"/>
+      <c r="Q128" s="101"/>
+      <c r="R128" s="101"/>
+      <c r="S128" s="101"/>
+      <c r="T128" s="101"/>
+      <c r="U128" s="101"/>
+      <c r="V128" s="101"/>
       <c r="W128" s="20"/>
       <c r="X128" s="20"/>
       <c r="Y128" s="20"/>
@@ -10327,24 +10326,24 @@
       <c r="B129" s="14"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="82"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="82"/>
-      <c r="I129" s="82"/>
-      <c r="J129" s="82"/>
-      <c r="K129" s="82"/>
-      <c r="L129" s="82"/>
-      <c r="M129" s="82"/>
-      <c r="N129" s="82"/>
-      <c r="O129" s="82"/>
-      <c r="P129" s="82"/>
-      <c r="Q129" s="82"/>
-      <c r="R129" s="82"/>
-      <c r="S129" s="82"/>
-      <c r="T129" s="82"/>
-      <c r="U129" s="82"/>
-      <c r="V129" s="82"/>
+      <c r="E129" s="101"/>
+      <c r="F129" s="101"/>
+      <c r="G129" s="101"/>
+      <c r="H129" s="101"/>
+      <c r="I129" s="101"/>
+      <c r="J129" s="101"/>
+      <c r="K129" s="101"/>
+      <c r="L129" s="101"/>
+      <c r="M129" s="101"/>
+      <c r="N129" s="101"/>
+      <c r="O129" s="101"/>
+      <c r="P129" s="101"/>
+      <c r="Q129" s="101"/>
+      <c r="R129" s="101"/>
+      <c r="S129" s="101"/>
+      <c r="T129" s="101"/>
+      <c r="U129" s="101"/>
+      <c r="V129" s="101"/>
       <c r="W129" s="20"/>
       <c r="X129" s="20"/>
       <c r="Y129" s="20"/>
@@ -10364,24 +10363,24 @@
       <c r="B130" s="14"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
-      <c r="E130" s="82"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="82"/>
-      <c r="H130" s="82"/>
-      <c r="I130" s="82"/>
-      <c r="J130" s="82"/>
-      <c r="K130" s="82"/>
-      <c r="L130" s="82"/>
-      <c r="M130" s="82"/>
-      <c r="N130" s="82"/>
-      <c r="O130" s="82"/>
-      <c r="P130" s="82"/>
-      <c r="Q130" s="82"/>
-      <c r="R130" s="82"/>
-      <c r="S130" s="82"/>
-      <c r="T130" s="82"/>
-      <c r="U130" s="82"/>
-      <c r="V130" s="82"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="101"/>
+      <c r="I130" s="101"/>
+      <c r="J130" s="101"/>
+      <c r="K130" s="101"/>
+      <c r="L130" s="101"/>
+      <c r="M130" s="101"/>
+      <c r="N130" s="101"/>
+      <c r="O130" s="101"/>
+      <c r="P130" s="101"/>
+      <c r="Q130" s="101"/>
+      <c r="R130" s="101"/>
+      <c r="S130" s="101"/>
+      <c r="T130" s="101"/>
+      <c r="U130" s="101"/>
+      <c r="V130" s="101"/>
       <c r="W130" s="20"/>
       <c r="X130" s="20"/>
       <c r="Y130" s="20"/>
@@ -10750,40 +10749,11 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="K102:AF102"/>
-    <mergeCell ref="B2:AN5"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="K103:AF103"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="K104:AF104"/>
-    <mergeCell ref="F105:J105"/>
-    <mergeCell ref="K105:AF105"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="K106:AF106"/>
-    <mergeCell ref="F107:J107"/>
-    <mergeCell ref="K107:AF107"/>
-    <mergeCell ref="F108:J108"/>
-    <mergeCell ref="K108:AF108"/>
-    <mergeCell ref="F109:J109"/>
-    <mergeCell ref="K109:AF109"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="K110:AF110"/>
-    <mergeCell ref="E116:S116"/>
-    <mergeCell ref="T116:X116"/>
-    <mergeCell ref="AE116:AH116"/>
-    <mergeCell ref="E117:S117"/>
-    <mergeCell ref="T117:X117"/>
-    <mergeCell ref="AE117:AH117"/>
-    <mergeCell ref="E118:S118"/>
-    <mergeCell ref="T118:X118"/>
-    <mergeCell ref="AE118:AH118"/>
-    <mergeCell ref="E119:S119"/>
-    <mergeCell ref="T119:X119"/>
-    <mergeCell ref="AE119:AH119"/>
-    <mergeCell ref="E120:S120"/>
-    <mergeCell ref="T120:X120"/>
-    <mergeCell ref="AE120:AH120"/>
+    <mergeCell ref="E126:S126"/>
+    <mergeCell ref="T126:X126"/>
+    <mergeCell ref="E128:V130"/>
+    <mergeCell ref="E124:S124"/>
+    <mergeCell ref="T124:X124"/>
     <mergeCell ref="E121:S121"/>
     <mergeCell ref="T121:X121"/>
     <mergeCell ref="AE121:AH121"/>
@@ -10797,11 +10767,40 @@
     <mergeCell ref="E123:S123"/>
     <mergeCell ref="T123:X123"/>
     <mergeCell ref="AE123:AH123"/>
-    <mergeCell ref="E126:S126"/>
-    <mergeCell ref="T126:X126"/>
-    <mergeCell ref="E128:V130"/>
-    <mergeCell ref="E124:S124"/>
-    <mergeCell ref="T124:X124"/>
+    <mergeCell ref="E119:S119"/>
+    <mergeCell ref="T119:X119"/>
+    <mergeCell ref="AE119:AH119"/>
+    <mergeCell ref="E120:S120"/>
+    <mergeCell ref="T120:X120"/>
+    <mergeCell ref="AE120:AH120"/>
+    <mergeCell ref="E117:S117"/>
+    <mergeCell ref="T117:X117"/>
+    <mergeCell ref="AE117:AH117"/>
+    <mergeCell ref="E118:S118"/>
+    <mergeCell ref="T118:X118"/>
+    <mergeCell ref="AE118:AH118"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="K110:AF110"/>
+    <mergeCell ref="E116:S116"/>
+    <mergeCell ref="T116:X116"/>
+    <mergeCell ref="AE116:AH116"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="K107:AF107"/>
+    <mergeCell ref="F108:J108"/>
+    <mergeCell ref="K108:AF108"/>
+    <mergeCell ref="F109:J109"/>
+    <mergeCell ref="K109:AF109"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="K104:AF104"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="K105:AF105"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="K106:AF106"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="K102:AF102"/>
+    <mergeCell ref="B2:AN5"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="K103:AF103"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
